--- a/Image_Analysis/Archive/tissue_image_corrected_R.xlsx
+++ b/Image_Analysis/Archive/tissue_image_corrected_R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5039089-33D7-3049-ADFD-5FAEFAF3DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA288FC-D441-5040-B161-D86CE9192AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018DE0C2-D304-6049-BBA1-01949D97EDD4}">
-  <dimension ref="A2:T241"/>
+  <dimension ref="A2:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,46 +1520,46 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0.42392965616360645</v>
+        <v>0.41493829601930421</v>
       </c>
       <c r="E20">
-        <v>55111</v>
+        <v>63657</v>
       </c>
       <c r="F20">
-        <v>123.22823029885141</v>
+        <v>104.42201171905683</v>
       </c>
       <c r="G20">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H20">
-        <v>159.07871062011102</v>
+        <v>143.53536270970031</v>
       </c>
       <c r="I20">
-        <v>104.19956918207052</v>
+        <v>15.99753570059363</v>
       </c>
       <c r="J20">
-        <v>1.4754963485848003</v>
+        <v>1.4187776951949957</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6651892.375</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3694844.5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1572752.375</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>482821.5</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>80870.625</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1586,46 +1582,46 @@
         <v>0</v>
       </c>
       <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
       <c r="D21">
-        <v>0.39518513191747767</v>
+        <v>0.37677868366172873</v>
       </c>
       <c r="E21">
-        <v>50609</v>
+        <v>52628</v>
       </c>
       <c r="F21">
-        <v>125.09142642612974</v>
+        <v>114.68963289503687</v>
       </c>
       <c r="G21">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>161.0035317543051</v>
+        <v>160.21632125870187</v>
       </c>
       <c r="I21">
-        <v>3.4318312587888489</v>
+        <v>334.33933748585264</v>
       </c>
       <c r="J21">
-        <v>1.3356354177101837</v>
+        <v>1.2615045343675408</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6040061.125</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3487625</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1748962.125</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>523644.625</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>126814.625</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1651,28 +1647,28 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.39199425058328141</v>
+        <v>0.42392965616360645</v>
       </c>
       <c r="E22">
-        <v>51100</v>
+        <v>55111</v>
       </c>
       <c r="F22">
-        <v>122.88913894324853</v>
+        <v>123.22823029885141</v>
       </c>
       <c r="G22">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H22">
-        <v>163.02452081252429</v>
+        <v>159.07871062011102</v>
       </c>
       <c r="I22">
-        <v>352.72769990886695</v>
+        <v>104.19956918207052</v>
       </c>
       <c r="J22">
-        <v>1.3333665732024886</v>
+        <v>1.4754963485848003</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1713,28 +1709,28 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0.43011010435143904</v>
+        <v>0.39518513191747767</v>
       </c>
       <c r="E23">
-        <v>49621</v>
+        <v>50609</v>
       </c>
       <c r="F23">
-        <v>138.85733862679109</v>
+        <v>125.09142642612974</v>
       </c>
       <c r="G23">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H23">
-        <v>162.14112637683613</v>
+        <v>161.0035317543051</v>
       </c>
       <c r="I23">
-        <v>12.218319713454786</v>
+        <v>3.4318312587888489</v>
       </c>
       <c r="J23">
-        <v>1.4308174907294242</v>
+        <v>1.3356354177101837</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1775,28 +1771,28 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0.41181926366716204</v>
+        <v>0.39199425058328141</v>
       </c>
       <c r="E24">
-        <v>52146</v>
+        <v>51100</v>
       </c>
       <c r="F24">
-        <v>126.51451693322595</v>
+        <v>122.88913894324853</v>
       </c>
       <c r="G24">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H24">
-        <v>140.82836281337796</v>
+        <v>163.02452081252429</v>
       </c>
       <c r="I24">
-        <v>955.17979651463395</v>
+        <v>352.72769990886695</v>
       </c>
       <c r="J24">
-        <v>1.2938033709944647</v>
+        <v>1.3333665732024886</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1834,31 +1830,31 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0.49291916109353279</v>
+        <v>0.43011010435143904</v>
       </c>
       <c r="E25">
-        <v>64417</v>
+        <v>49621</v>
       </c>
       <c r="F25">
-        <v>122.582905133738</v>
+        <v>138.85733862679109</v>
       </c>
       <c r="G25">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>135.87448209090661</v>
+        <v>162.14112637683613</v>
       </c>
       <c r="I25">
-        <v>126.56597102775795</v>
+        <v>12.218319713454786</v>
       </c>
       <c r="J25">
-        <v>1.5634567581431031</v>
+        <v>1.4308174907294242</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1896,31 +1892,31 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0.37858664375489398</v>
+        <v>0.41181926366716204</v>
       </c>
       <c r="E26">
-        <v>50992</v>
+        <v>52146</v>
       </c>
       <c r="F26">
-        <v>118.93726466896769</v>
+        <v>126.51451693322595</v>
       </c>
       <c r="G26">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H26">
-        <v>182.8556772608944</v>
+        <v>140.82836281337796</v>
       </c>
       <c r="I26">
-        <v>240.4023665964784</v>
+        <v>955.17979651463395</v>
       </c>
       <c r="J26">
-        <v>1.2990891572741043</v>
+        <v>1.2938033709944647</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1961,28 +1957,28 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.32818973274925289</v>
+        <v>0.49291916109353279</v>
       </c>
       <c r="E27">
-        <v>45958</v>
+        <v>64417</v>
       </c>
       <c r="F27">
-        <v>114.39803733843945</v>
+        <v>122.582905133738</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H27">
-        <v>198.24817160134828</v>
+        <v>135.87448209090661</v>
       </c>
       <c r="I27">
-        <v>386.90079709845986</v>
+        <v>126.56597102775795</v>
       </c>
       <c r="J27">
-        <v>1.3014569007998047</v>
+        <v>1.5634567581431031</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2023,28 +2019,28 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0.33191152250427475</v>
+        <v>0.37858664375489398</v>
       </c>
       <c r="E28">
-        <v>44692</v>
+        <v>50992</v>
       </c>
       <c r="F28">
-        <v>118.97267967421462</v>
+        <v>118.93726466896769</v>
       </c>
       <c r="G28">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H28">
-        <v>185.1749564366541</v>
+        <v>182.8556772608944</v>
       </c>
       <c r="I28">
-        <v>130.7618145948376</v>
+        <v>240.4023665964784</v>
       </c>
       <c r="J28">
-        <v>1.1647986153577952</v>
+        <v>1.2990891572741043</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2085,28 +2081,28 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0.38318504102945172</v>
+        <v>0.32818973274925289</v>
       </c>
       <c r="E29">
-        <v>52760</v>
+        <v>45958</v>
       </c>
       <c r="F29">
-        <v>116.34787717968157</v>
+        <v>114.39803733843945</v>
       </c>
       <c r="G29">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>173.59244338425239</v>
+        <v>198.24817160134828</v>
       </c>
       <c r="I29">
-        <v>30.319613310508885</v>
+        <v>386.90079709845986</v>
       </c>
       <c r="J29">
-        <v>1.3795477671295087</v>
+        <v>1.3014569007998047</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2144,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>0.33002784319718109</v>
+        <v>0.33191152250427475</v>
       </c>
       <c r="E30">
-        <v>41172</v>
+        <v>44692</v>
       </c>
       <c r="F30">
-        <v>128.41132322937918</v>
+        <v>118.97267967421462</v>
       </c>
       <c r="G30">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H30">
-        <v>176.48305287725114</v>
+        <v>185.1749564366541</v>
       </c>
       <c r="I30">
-        <v>556.65387212692929</v>
+        <v>130.7618145948376</v>
       </c>
       <c r="J30">
-        <v>1.1171978294398721</v>
+        <v>1.1647986153577952</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2206,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>0.37317150270866295</v>
+        <v>0.38318504102945172</v>
       </c>
       <c r="E31">
-        <v>47170</v>
+        <v>52760</v>
       </c>
       <c r="F31">
-        <v>126.73521305914777</v>
+        <v>116.34787717968157</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H31">
-        <v>148.51856365608597</v>
+        <v>173.59244338425239</v>
       </c>
       <c r="I31">
-        <v>1309.7560021250879</v>
+        <v>30.319613310508885</v>
       </c>
       <c r="J31">
-        <v>1.2373814114826811</v>
+        <v>1.3795477671295087</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2271,28 +2267,28 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.42899947264969557</v>
+        <v>0.33002784319718109</v>
       </c>
       <c r="E32">
-        <v>58775</v>
+        <v>41172</v>
       </c>
       <c r="F32">
-        <v>116.92808166737558</v>
+        <v>128.41132322937918</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>160.07464165151137</v>
+        <v>176.48305287725114</v>
       </c>
       <c r="I32">
-        <v>222.21049206636113</v>
+        <v>556.65387212692929</v>
       </c>
       <c r="J32">
-        <v>1.4659877356338111</v>
+        <v>1.1171978294398721</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2333,28 +2329,28 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0.39059347633715263</v>
+        <v>0.37317150270866295</v>
       </c>
       <c r="E33">
-        <v>54027</v>
+        <v>47170</v>
       </c>
       <c r="F33">
-        <v>115.8160734447591</v>
+        <v>126.73521305914777</v>
       </c>
       <c r="G33">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H33">
-        <v>157.94515447642934</v>
+        <v>148.51856365608597</v>
       </c>
       <c r="I33">
-        <v>214.3630879591405</v>
+        <v>1309.7560021250879</v>
       </c>
       <c r="J33">
-        <v>1.3037285304907247</v>
+        <v>1.2373814114826811</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2395,28 +2391,28 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0.36046403331096089</v>
+        <v>0.42899947264969557</v>
       </c>
       <c r="E34">
-        <v>46022</v>
+        <v>58775</v>
       </c>
       <c r="F34">
-        <v>125.47325192299336</v>
+        <v>116.92808166737558</v>
       </c>
       <c r="G34">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H34">
-        <v>204.8817941839549</v>
+        <v>160.07464165151137</v>
       </c>
       <c r="I34">
-        <v>548.61424933298724</v>
+        <v>222.21049206636113</v>
       </c>
       <c r="J34">
-        <v>1.4305518192473343</v>
+        <v>1.4659877356338111</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2454,31 +2450,31 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>0.35237112876935617</v>
+        <v>0.39059347633715263</v>
       </c>
       <c r="E35">
-        <v>41820</v>
+        <v>54027</v>
       </c>
       <c r="F35">
-        <v>134.98048780487804</v>
+        <v>115.8160734447591</v>
       </c>
       <c r="G35">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H35">
-        <v>183.59030504225336</v>
+        <v>157.94515447642934</v>
       </c>
       <c r="I35">
-        <v>665.88163387094426</v>
+        <v>214.3630879591405</v>
       </c>
       <c r="J35">
-        <v>1.0950682787801795</v>
+        <v>1.3037285304907247</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2516,31 +2512,31 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>0.30040571266200039</v>
+        <v>0.36046403331096089</v>
       </c>
       <c r="E36">
-        <v>35434</v>
+        <v>46022</v>
       </c>
       <c r="F36">
-        <v>135.81342778122706</v>
+        <v>125.47325192299336</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>204.08218235439972</v>
+        <v>204.8817941839549</v>
       </c>
       <c r="I36">
-        <v>1188.2572000267553</v>
+        <v>548.61424933298724</v>
       </c>
       <c r="J36">
-        <v>1.0188763603187254</v>
+        <v>1.4305518192473343</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2581,28 +2577,28 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.32648427137766273</v>
+        <v>0.35237112876935617</v>
       </c>
       <c r="E37">
-        <v>38316</v>
+        <v>41820</v>
       </c>
       <c r="F37">
-        <v>136.50130493788495</v>
+        <v>134.98048780487804</v>
       </c>
       <c r="G37">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H37">
-        <v>190.78621069379122</v>
+        <v>183.59030504225336</v>
       </c>
       <c r="I37">
-        <v>180.63761079216141</v>
+        <v>665.88163387094426</v>
       </c>
       <c r="J37">
-        <v>1.1105635186455398</v>
+        <v>1.0950682787801795</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2643,28 +2639,28 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0.39068885882592647</v>
+        <v>0.30040571266200039</v>
       </c>
       <c r="E38">
-        <v>46086</v>
+        <v>35434</v>
       </c>
       <c r="F38">
-        <v>135.80529878922016</v>
+        <v>135.81342778122706</v>
       </c>
       <c r="G38">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>173.79846697882422</v>
+        <v>204.08218235439972</v>
       </c>
       <c r="I38">
-        <v>110.82556234140095</v>
+        <v>1188.2572000267553</v>
       </c>
       <c r="J38">
-        <v>1.4429560305575966</v>
+        <v>1.0188763603187254</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2705,28 +2701,28 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>0.29536186418332616</v>
+        <v>0.32648427137766273</v>
       </c>
       <c r="E39">
-        <v>34498</v>
+        <v>38316</v>
       </c>
       <c r="F39">
-        <v>137.15612499275321</v>
+        <v>136.50130493788495</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>200.3920390024131</v>
+        <v>190.78621069379122</v>
       </c>
       <c r="I39">
-        <v>37.989696286721049</v>
+        <v>180.63761079216141</v>
       </c>
       <c r="J39">
-        <v>1.1985580786694554</v>
+        <v>1.1105635186455398</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2764,31 +2760,31 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>0.3980571560837049</v>
+        <v>0.39068885882592647</v>
       </c>
       <c r="E40">
-        <v>49506</v>
+        <v>46086</v>
       </c>
       <c r="F40">
-        <v>128.80784147376076</v>
+        <v>135.80529878922016</v>
       </c>
       <c r="G40">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H40">
-        <v>130.33151263856629</v>
+        <v>173.79846697882422</v>
       </c>
       <c r="I40">
-        <v>16.878606226062999</v>
+        <v>110.82556234140095</v>
       </c>
       <c r="J40">
-        <v>1.2446363648724132</v>
+        <v>1.4429560305575966</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2826,31 +2822,31 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>0.40975224773079566</v>
+        <v>0.29536186418332616</v>
       </c>
       <c r="E41">
-        <v>50837</v>
+        <v>34498</v>
       </c>
       <c r="F41">
-        <v>129.12077817337766</v>
+        <v>137.15612499275321</v>
       </c>
       <c r="G41">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="H41">
-        <v>149.96467861581564</v>
+        <v>200.3920390024131</v>
       </c>
       <c r="I41">
-        <v>250.16321368868435</v>
+        <v>37.989696286721049</v>
       </c>
       <c r="J41">
-        <v>1.3593801853730292</v>
+        <v>1.1985580786694554</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2891,28 +2887,28 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.39587365865254009</v>
+        <v>0.3980571560837049</v>
       </c>
       <c r="E42">
-        <v>52550</v>
+        <v>49506</v>
       </c>
       <c r="F42">
-        <v>120.68091341579448</v>
+        <v>128.80784147376076</v>
       </c>
       <c r="G42">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H42">
-        <v>153.28315986126074</v>
+        <v>130.33151263856629</v>
       </c>
       <c r="I42">
-        <v>298.88685358776604</v>
+        <v>16.878606226062999</v>
       </c>
       <c r="J42">
-        <v>1.3356853997753491</v>
+        <v>1.2446363648724132</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2953,28 +2949,28 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0.37207897370439619</v>
+        <v>0.40975224773079566</v>
       </c>
       <c r="E43">
-        <v>47409</v>
+        <v>50837</v>
       </c>
       <c r="F43">
-        <v>125.72714041637664</v>
+        <v>129.12077817337766</v>
       </c>
       <c r="G43">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H43">
-        <v>152.05923199013051</v>
+        <v>149.96467861581564</v>
       </c>
       <c r="I43">
-        <v>814.47307946545823</v>
+        <v>250.16321368868435</v>
       </c>
       <c r="J43">
-        <v>1.1853885734208902</v>
+        <v>1.3593801853730292</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3015,28 +3011,28 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0.34632270542691407</v>
+        <v>0.39587365865254009</v>
       </c>
       <c r="E44">
-        <v>44046</v>
+        <v>52550</v>
       </c>
       <c r="F44">
-        <v>125.95899741179676</v>
+        <v>120.68091341579448</v>
       </c>
       <c r="G44">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H44">
-        <v>161.96072207985173</v>
+        <v>153.28315986126074</v>
       </c>
       <c r="I44">
-        <v>246.98103843962781</v>
+        <v>298.88685358776604</v>
       </c>
       <c r="J44">
-        <v>1.134074612515074</v>
+        <v>1.3356853997753491</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3074,31 +3070,31 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>0.29632205622672869</v>
+        <v>0.37207897370439619</v>
       </c>
       <c r="E45">
-        <v>38673</v>
+        <v>47409</v>
       </c>
       <c r="F45">
-        <v>122.74698109792362</v>
+        <v>125.72714041637664</v>
       </c>
       <c r="G45">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H45">
-        <v>174.11340342244267</v>
+        <v>152.05923199013051</v>
       </c>
       <c r="I45">
-        <v>89.10802495204716</v>
+        <v>814.47307946545823</v>
       </c>
       <c r="J45">
-        <v>0.93847929820250109</v>
+        <v>1.1853885734208902</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3136,31 +3132,31 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>0.39526621951755436</v>
+        <v>0.34632270542691407</v>
       </c>
       <c r="E46">
-        <v>47968</v>
+        <v>44046</v>
       </c>
       <c r="F46">
-        <v>132.0057329886591</v>
+        <v>125.95899741179676</v>
       </c>
       <c r="G46">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H46">
-        <v>148.8753623341133</v>
+        <v>161.96072207985173</v>
       </c>
       <c r="I46">
-        <v>739.90597709277597</v>
+        <v>246.98103843962781</v>
       </c>
       <c r="J46">
-        <v>1.2000348735978661</v>
+        <v>1.134074612515074</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3201,28 +3197,28 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.3702936731946242</v>
+        <v>0.29632205622672869</v>
       </c>
       <c r="E47">
-        <v>50488</v>
+        <v>38673</v>
       </c>
       <c r="F47">
-        <v>117.49322611313579</v>
+        <v>122.74698109792362</v>
       </c>
       <c r="G47">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>183.75713379029304</v>
+        <v>174.11340342244267</v>
       </c>
       <c r="I47">
-        <v>298.96299028695665</v>
+        <v>89.10802495204716</v>
       </c>
       <c r="J47">
-        <v>1.4363016973893425</v>
+        <v>0.93847929820250109</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3263,28 +3259,28 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0.41319388263659174</v>
+        <v>0.39526621951755436</v>
       </c>
       <c r="E48">
-        <v>53820</v>
+        <v>47968</v>
       </c>
       <c r="F48">
-        <v>122.98861018208844</v>
+        <v>132.0057329886591</v>
       </c>
       <c r="G48">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H48">
-        <v>143.79291145368052</v>
+        <v>148.8753623341133</v>
       </c>
       <c r="I48">
-        <v>54.569121169846248</v>
+        <v>739.90597709277597</v>
       </c>
       <c r="J48">
-        <v>1.4214745438700169</v>
+        <v>1.2000348735978661</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3325,28 +3321,28 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>0.31528719118046566</v>
+        <v>0.3702936731946242</v>
       </c>
       <c r="E49">
-        <v>45229</v>
+        <v>50488</v>
       </c>
       <c r="F49">
-        <v>111.67193614716221</v>
+        <v>117.49322611313579</v>
       </c>
       <c r="G49">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H49">
-        <v>204.5180736291571</v>
+        <v>183.75713379029304</v>
       </c>
       <c r="I49">
-        <v>400.08520861855993</v>
+        <v>298.96299028695665</v>
       </c>
       <c r="J49">
-        <v>1.1639940659997376</v>
+        <v>1.4363016973893425</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3384,31 +3380,31 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>0.32712991344663372</v>
+        <v>0.41319388263659174</v>
       </c>
       <c r="E50">
-        <v>41013</v>
+        <v>53820</v>
       </c>
       <c r="F50">
-        <v>127.77721697998196</v>
+        <v>122.98861018208844</v>
       </c>
       <c r="G50">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H50">
-        <v>183.3974022656455</v>
+        <v>143.79291145368052</v>
       </c>
       <c r="I50">
-        <v>31.137949728840955</v>
+        <v>54.569121169846248</v>
       </c>
       <c r="J50">
-        <v>1.1826547687090903</v>
+        <v>1.4214745438700169</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3446,31 +3442,31 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>0.32681180535580168</v>
+        <v>0.31528719118046566</v>
       </c>
       <c r="E51">
-        <v>42923</v>
+        <v>45229</v>
       </c>
       <c r="F51">
-        <v>121.97262539897025</v>
+        <v>111.67193614716221</v>
       </c>
       <c r="G51">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H51">
-        <v>173.08117518189476</v>
+        <v>204.5180736291571</v>
       </c>
       <c r="I51">
-        <v>1443.8617865685073</v>
+        <v>400.08520861855993</v>
       </c>
       <c r="J51">
-        <v>1.264650770244415</v>
+        <v>1.1639940659997376</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3511,28 +3507,28 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.29662655608290583</v>
+        <v>0.32712991344663372</v>
       </c>
       <c r="E52">
-        <v>39367</v>
+        <v>41013</v>
       </c>
       <c r="F52">
-        <v>120.70698808646836</v>
+        <v>127.77721697998196</v>
       </c>
       <c r="G52">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>218.40115226753264</v>
+        <v>183.3974022656455</v>
       </c>
       <c r="I52">
-        <v>872.57988528397584</v>
+        <v>31.137949728840955</v>
       </c>
       <c r="J52">
-        <v>1.2161064600365659</v>
+        <v>1.1826547687090903</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3573,28 +3569,28 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>0.29386895344935038</v>
+        <v>0.32681180535580168</v>
       </c>
       <c r="E53">
-        <v>38665</v>
+        <v>42923</v>
       </c>
       <c r="F53">
-        <v>121.75600672442778</v>
+        <v>121.97262539897025</v>
       </c>
       <c r="G53">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>229.95845853862389</v>
+        <v>173.08117518189476</v>
       </c>
       <c r="I53">
-        <v>147.20483623797057</v>
+        <v>1443.8617865685073</v>
       </c>
       <c r="J53">
-        <v>1.1685401658204775</v>
+        <v>1.264650770244415</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3635,28 +3631,28 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>0.34202056816002685</v>
+        <v>0.29662655608290583</v>
       </c>
       <c r="E54">
-        <v>49646</v>
+        <v>39367</v>
       </c>
       <c r="F54">
-        <v>110.36278854288362</v>
+        <v>120.70698808646836</v>
       </c>
       <c r="G54">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>174.09963617930947</v>
+        <v>218.40115226753264</v>
       </c>
       <c r="I54">
-        <v>540.59991144328978</v>
+        <v>872.57988528397584</v>
       </c>
       <c r="J54">
-        <v>1.3291181973154256</v>
+        <v>1.2161064600365659</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3694,31 +3690,31 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>0.30838993859565017</v>
+        <v>0.29386895344935038</v>
       </c>
       <c r="E55">
-        <v>38325</v>
+        <v>38665</v>
       </c>
       <c r="F55">
-        <v>128.90588388780171</v>
+        <v>121.75600672442778</v>
       </c>
       <c r="G55">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H55">
-        <v>197.5431822936832</v>
+        <v>229.95845853862389</v>
       </c>
       <c r="I55">
-        <v>265.33590787218844</v>
+        <v>147.20483623797057</v>
       </c>
       <c r="J55">
-        <v>1.0047295076828502</v>
+        <v>1.1685401658204775</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3756,31 +3752,31 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>0.31681518369368938</v>
+        <v>0.34202056816002685</v>
       </c>
       <c r="E56">
-        <v>41933</v>
+        <v>49646</v>
       </c>
       <c r="F56">
-        <v>121.03326735506641</v>
+        <v>110.36278854288362</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H56">
-        <v>167.76712228706072</v>
+        <v>174.09963617930947</v>
       </c>
       <c r="I56">
-        <v>933.15405072878104</v>
+        <v>540.59991144328978</v>
       </c>
       <c r="J56">
-        <v>1.022819693538634</v>
+        <v>1.3291181973154256</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3821,28 +3817,28 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.33131438317992234</v>
+        <v>0.30838993859565017</v>
       </c>
       <c r="E57">
-        <v>41732</v>
+        <v>38325</v>
       </c>
       <c r="F57">
-        <v>127.18204255727019</v>
+        <v>128.90588388780171</v>
       </c>
       <c r="G57">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>168.12729815643672</v>
+        <v>197.5431822936832</v>
       </c>
       <c r="I57">
-        <v>736.60130511173008</v>
+        <v>265.33590787218844</v>
       </c>
       <c r="J57">
-        <v>1.056126059431705</v>
+        <v>1.0047295076828502</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3883,28 +3879,28 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>0.35938629858014925</v>
+        <v>0.31681518369368938</v>
       </c>
       <c r="E58">
-        <v>47138</v>
+        <v>41933</v>
       </c>
       <c r="F58">
-        <v>122.13638677924392</v>
+        <v>121.03326735506641</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>180.45262756303339</v>
+        <v>167.76712228706072</v>
       </c>
       <c r="I58">
-        <v>697.15914009842686</v>
+        <v>933.15405072878104</v>
       </c>
       <c r="J58">
-        <v>1.2530800470297938</v>
+        <v>1.022819693538634</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3945,28 +3941,28 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>0.35875045693705354</v>
+        <v>0.33131438317992234</v>
       </c>
       <c r="E59">
-        <v>49778</v>
+        <v>41732</v>
       </c>
       <c r="F59">
-        <v>115.45419663305074</v>
+        <v>127.18204255727019</v>
       </c>
       <c r="G59">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H59">
-        <v>134.01207903189413</v>
+        <v>168.12729815643672</v>
       </c>
       <c r="I59">
-        <v>52.645267394156768</v>
+        <v>736.60130511173008</v>
       </c>
       <c r="J59">
-        <v>1.238373219989253</v>
+        <v>1.056126059431705</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4004,31 +4000,31 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>0.60414138531329398</v>
+        <v>0.35938629858014925</v>
       </c>
       <c r="E60">
-        <v>61647</v>
+        <v>47138</v>
       </c>
       <c r="F60">
-        <v>156.99338167307411</v>
+        <v>122.13638677924392</v>
       </c>
       <c r="G60">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H60">
-        <v>98.135599061034583</v>
+        <v>180.45262756303339</v>
       </c>
       <c r="I60">
-        <v>274.50243987435096</v>
+        <v>697.15914009842686</v>
       </c>
       <c r="J60">
-        <v>2.0511445519993914</v>
+        <v>1.2530800470297938</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4066,31 +4062,31 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>0.59420050747479103</v>
+        <v>0.35875045693705354</v>
       </c>
       <c r="E61">
-        <v>56976</v>
+        <v>49778</v>
       </c>
       <c r="F61">
-        <v>167.06895885987083</v>
+        <v>115.45419663305074</v>
       </c>
       <c r="G61">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H61">
-        <v>118.73584939245387</v>
+        <v>134.01207903189413</v>
       </c>
       <c r="I61">
-        <v>70.043631229047264</v>
+        <v>52.645267394156768</v>
       </c>
       <c r="J61">
-        <v>2.1193689767066428</v>
+        <v>1.238373219989253</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4131,28 +4127,28 @@
         <v>13</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0.60403620239864486</v>
+        <v>0.60414138531329398</v>
       </c>
       <c r="E62">
-        <v>61228</v>
+        <v>61647</v>
       </c>
       <c r="F62">
-        <v>158.04021036127261</v>
+        <v>156.99338167307411</v>
       </c>
       <c r="G62">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H62">
-        <v>112.87992644945552</v>
+        <v>98.135599061034583</v>
       </c>
       <c r="I62">
-        <v>62.467278592292544</v>
+        <v>274.50243987435096</v>
       </c>
       <c r="J62">
-        <v>2.2665327411185441</v>
+        <v>2.0511445519993914</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4193,28 +4189,28 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>0.43442996977723447</v>
+        <v>0.59420050747479103</v>
       </c>
       <c r="E63">
-        <v>53647</v>
+        <v>56976</v>
       </c>
       <c r="F63">
-        <v>129.72660167390535</v>
+        <v>167.06895885987083</v>
       </c>
       <c r="G63">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H63">
-        <v>125.94701351172905</v>
+        <v>118.73584939245387</v>
       </c>
       <c r="I63">
-        <v>1199.6729687994994</v>
+        <v>70.043631229047264</v>
       </c>
       <c r="J63">
-        <v>1.4653819101865746</v>
+        <v>2.1193689767066428</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4255,28 +4251,28 @@
         <v>13</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>0.6139408748421944</v>
+        <v>0.60403620239864486</v>
       </c>
       <c r="E64">
-        <v>61412</v>
+        <v>61228</v>
       </c>
       <c r="F64">
-        <v>160.15039405979289</v>
+        <v>158.04021036127261</v>
       </c>
       <c r="G64">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H64">
-        <v>96.605330580298372</v>
+        <v>112.87992644945552</v>
       </c>
       <c r="I64">
-        <v>8.1368578902564384</v>
+        <v>62.467278592292544</v>
       </c>
       <c r="J64">
-        <v>2.2836479731358672</v>
+        <v>2.2665327411185441</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4314,31 +4310,31 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>0.35266245735254165</v>
+        <v>0.43442996977723447</v>
       </c>
       <c r="E65">
-        <v>48422</v>
+        <v>53647</v>
       </c>
       <c r="F65">
-        <v>116.67322704555781</v>
+        <v>129.72660167390535</v>
       </c>
       <c r="G65">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H65">
-        <v>184.15733892154273</v>
+        <v>125.94701351172905</v>
       </c>
       <c r="I65">
-        <v>198.80138854734346</v>
+        <v>1199.6729687994994</v>
       </c>
       <c r="J65">
-        <v>1.2408579899617469</v>
+        <v>1.4653819101865746</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4376,31 +4372,31 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>0.35521262804225195</v>
+        <v>0.6139408748421944</v>
       </c>
       <c r="E66">
-        <v>45729</v>
+        <v>61412</v>
       </c>
       <c r="F66">
-        <v>124.43753416868945</v>
+        <v>160.15039405979289</v>
       </c>
       <c r="G66">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H66">
-        <v>151.97499740403802</v>
+        <v>96.605330580298372</v>
       </c>
       <c r="I66">
-        <v>300.31107214429079</v>
+        <v>8.1368578902564384</v>
       </c>
       <c r="J66">
-        <v>1.074016759042842</v>
+        <v>2.2836479731358672</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4441,28 +4437,28 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.36427952013119835</v>
+        <v>0.35266245735254165</v>
       </c>
       <c r="E67">
-        <v>47519</v>
+        <v>48422</v>
       </c>
       <c r="F67">
-        <v>122.8067299396031</v>
+        <v>116.67322704555781</v>
       </c>
       <c r="G67">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H67">
-        <v>171.05201620725603</v>
+        <v>184.15733892154273</v>
       </c>
       <c r="I67">
-        <v>244.72304441083568</v>
+        <v>198.80138854734346</v>
       </c>
       <c r="J67">
-        <v>1.1762849910116198</v>
+        <v>1.2408579899617469</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4503,28 +4499,28 @@
         <v>14</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>0.33184173348434726</v>
+        <v>0.35521262804225195</v>
       </c>
       <c r="E68">
-        <v>46159</v>
+        <v>45729</v>
       </c>
       <c r="F68">
-        <v>115.16733464763101</v>
+        <v>124.43753416868945</v>
       </c>
       <c r="G68">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H68">
-        <v>183.29592285090726</v>
+        <v>151.97499740403802</v>
       </c>
       <c r="I68">
-        <v>200.99011409885577</v>
+        <v>300.31107214429079</v>
       </c>
       <c r="J68">
-        <v>1.1116139922860542</v>
+        <v>1.074016759042842</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4565,28 +4561,28 @@
         <v>14</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>0.35850731898301291</v>
+        <v>0.36427952013119835</v>
       </c>
       <c r="E69">
-        <v>46103</v>
+        <v>47519</v>
       </c>
       <c r="F69">
-        <v>124.57289113506714</v>
+        <v>122.8067299396031</v>
       </c>
       <c r="G69">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H69">
-        <v>187.27593745464748</v>
+        <v>171.05201620725603</v>
       </c>
       <c r="I69">
-        <v>518.92224475832143</v>
+        <v>244.72304441083568</v>
       </c>
       <c r="J69">
-        <v>1.1756392135900811</v>
+        <v>1.1762849910116198</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4624,31 +4620,31 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>0.41882425851351135</v>
+        <v>0.33184173348434726</v>
       </c>
       <c r="E70">
-        <v>51504</v>
+        <v>46159</v>
       </c>
       <c r="F70">
-        <v>130.27034793414103</v>
+        <v>115.16733464763101</v>
       </c>
       <c r="G70">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H70">
-        <v>130.08817288527032</v>
+        <v>183.29592285090726</v>
       </c>
       <c r="I70">
-        <v>197.80860132750161</v>
+        <v>200.99011409885577</v>
       </c>
       <c r="J70">
-        <v>0.97518478095185457</v>
+        <v>1.1116139922860542</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4686,31 +4682,31 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>0.44437459300142224</v>
+        <v>0.35850731898301291</v>
       </c>
       <c r="E71">
-        <v>50033</v>
+        <v>46103</v>
       </c>
       <c r="F71">
-        <v>142.28115443807087</v>
+        <v>124.57289113506714</v>
       </c>
       <c r="G71">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H71">
-        <v>132.89669982746915</v>
+        <v>187.27593745464748</v>
       </c>
       <c r="I71">
-        <v>205.17970322868098</v>
+        <v>518.92224475832143</v>
       </c>
       <c r="J71">
-        <v>0.92290007389062423</v>
+        <v>1.1756392135900811</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4751,28 +4747,28 @@
         <v>15</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0.42724844241893989</v>
+        <v>0.41882425851351135</v>
       </c>
       <c r="E72">
-        <v>56358</v>
+        <v>51504</v>
       </c>
       <c r="F72">
-        <v>121.44499449944995</v>
+        <v>130.27034793414103</v>
       </c>
       <c r="G72">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H72">
-        <v>123.12992954188951</v>
+        <v>130.08817288527032</v>
       </c>
       <c r="I72">
-        <v>196.44656775100555</v>
+        <v>197.80860132750161</v>
       </c>
       <c r="J72">
-        <v>1.0395237699227475</v>
+        <v>0.97518478095185457</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -4813,28 +4809,28 @@
         <v>15</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>0.40425889054684627</v>
+        <v>0.44437459300142224</v>
       </c>
       <c r="E73">
-        <v>53789</v>
+        <v>50033</v>
       </c>
       <c r="F73">
-        <v>120.39842718771496</v>
+        <v>142.28115443807087</v>
       </c>
       <c r="G73">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H73">
-        <v>147.36625283987581</v>
+        <v>132.89669982746915</v>
       </c>
       <c r="I73">
-        <v>282.18391964809882</v>
+        <v>205.17970322868098</v>
       </c>
       <c r="J73">
-        <v>1.0722160021149485</v>
+        <v>0.92290007389062423</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4875,28 +4871,28 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>0.40541246933777586</v>
+        <v>0.42724844241893989</v>
       </c>
       <c r="E74">
-        <v>51052</v>
+        <v>56358</v>
       </c>
       <c r="F74">
-        <v>127.21521194076628</v>
+        <v>121.44499449944995</v>
       </c>
       <c r="G74">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H74">
-        <v>142.96179032841508</v>
+        <v>123.12992954188951</v>
       </c>
       <c r="I74">
-        <v>304.216443471221</v>
+        <v>196.44656775100555</v>
       </c>
       <c r="J74">
-        <v>0.87977162864970015</v>
+        <v>1.0395237699227475</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4934,31 +4930,31 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>0.42216657827556453</v>
+        <v>0.40425889054684627</v>
       </c>
       <c r="E75">
-        <v>62709</v>
+        <v>53789</v>
       </c>
       <c r="F75">
-        <v>107.84715112663254</v>
+        <v>120.39842718771496</v>
       </c>
       <c r="G75">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H75">
-        <v>128.97572157279342</v>
+        <v>147.36625283987581</v>
       </c>
       <c r="I75">
-        <v>454.12705679032939</v>
+        <v>282.18391964809882</v>
       </c>
       <c r="J75">
-        <v>1.7336359861671216</v>
+        <v>1.0722160021149485</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4996,31 +4992,31 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>0.40951915989500937</v>
+        <v>0.40541246933777586</v>
       </c>
       <c r="E76">
-        <v>69255</v>
+        <v>51052</v>
       </c>
       <c r="F76">
-        <v>94.727875243664712</v>
+        <v>127.21521194076628</v>
       </c>
       <c r="G76">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H76">
-        <v>130.36101175982984</v>
+        <v>142.96179032841508</v>
       </c>
       <c r="I76">
-        <v>854.22923663540917</v>
+        <v>304.216443471221</v>
       </c>
       <c r="J76">
-        <v>2.4830103139182702</v>
+        <v>0.87977162864970015</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5061,28 +5057,28 @@
         <v>16</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0.42571320882672548</v>
+        <v>0.42216657827556453</v>
       </c>
       <c r="E77">
-        <v>62371</v>
+        <v>62709</v>
       </c>
       <c r="F77">
-        <v>109.34253098395088</v>
+        <v>107.84715112663254</v>
       </c>
       <c r="G77">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H77">
-        <v>121.78296340312576</v>
+        <v>128.97572157279342</v>
       </c>
       <c r="I77">
-        <v>298.2663885523757</v>
+        <v>454.12705679032939</v>
       </c>
       <c r="J77">
-        <v>1.7946127408949148</v>
+        <v>1.7336359861671216</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5123,28 +5119,28 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>0.45279865206066128</v>
+        <v>0.40951915989500937</v>
       </c>
       <c r="E78">
-        <v>54560</v>
+        <v>69255</v>
       </c>
       <c r="F78">
-        <v>132.9491202346041</v>
+        <v>94.727875243664712</v>
       </c>
       <c r="G78">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H78">
-        <v>138.94157462030134</v>
+        <v>130.36101175982984</v>
       </c>
       <c r="I78">
-        <v>137.52113865774868</v>
+        <v>854.22923663540917</v>
       </c>
       <c r="J78">
-        <v>1.4607142572744145</v>
+        <v>2.4830103139182702</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5185,28 +5181,28 @@
         <v>16</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>0.45132527975534142</v>
+        <v>0.42571320882672548</v>
       </c>
       <c r="E79">
-        <v>64152</v>
+        <v>62371</v>
       </c>
       <c r="F79">
-        <v>112.70265930914078</v>
+        <v>109.34253098395088</v>
       </c>
       <c r="G79">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H79">
-        <v>137.07519249961021</v>
+        <v>121.78296340312576</v>
       </c>
       <c r="I79">
-        <v>319.48278217095566</v>
+        <v>298.2663885523757</v>
       </c>
       <c r="J79">
-        <v>1.655992493342435</v>
+        <v>1.7946127408949148</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -5244,31 +5240,31 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>0.44227262013199736</v>
+        <v>0.45279865206066128</v>
       </c>
       <c r="E80">
-        <v>56491</v>
+        <v>54560</v>
       </c>
       <c r="F80">
-        <v>125.41962436494309</v>
+        <v>132.9491202346041</v>
       </c>
       <c r="G80">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H80">
-        <v>137.12627732541984</v>
+        <v>138.94157462030134</v>
       </c>
       <c r="I80">
-        <v>246.01189038246716</v>
+        <v>137.52113865774868</v>
       </c>
       <c r="J80">
-        <v>1.4391461223536042</v>
+        <v>1.4607142572744145</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -5306,31 +5302,31 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>0.44027601744650591</v>
+        <v>0.45132527975534142</v>
       </c>
       <c r="E81">
-        <v>59668</v>
+        <v>64152</v>
       </c>
       <c r="F81">
-        <v>118.20565462224307</v>
+        <v>112.70265930914078</v>
       </c>
       <c r="G81">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H81">
-        <v>137.11687042498204</v>
+        <v>137.07519249961021</v>
       </c>
       <c r="I81">
-        <v>341.38458554575021</v>
+        <v>319.48278217095566</v>
       </c>
       <c r="J81">
-        <v>1.3445489445176992</v>
+        <v>1.655992493342435</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5371,28 +5367,28 @@
         <v>17</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0.41722541578774947</v>
+        <v>0.44227262013199736</v>
       </c>
       <c r="E82">
-        <v>55748</v>
+        <v>56491</v>
       </c>
       <c r="F82">
-        <v>119.89364640883979</v>
+        <v>125.41962436494309</v>
       </c>
       <c r="G82">
         <v>79</v>
       </c>
       <c r="H82">
-        <v>118.32503359025804</v>
+        <v>137.12627732541984</v>
       </c>
       <c r="I82">
-        <v>67.365748324518023</v>
+        <v>246.01189038246716</v>
       </c>
       <c r="J82">
-        <v>1.3413011947331419</v>
+        <v>1.4391461223536042</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5433,28 +5429,28 @@
         <v>17</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>0.40208088634801925</v>
+        <v>0.44027601744650591</v>
       </c>
       <c r="E83">
-        <v>52571</v>
+        <v>59668</v>
       </c>
       <c r="F83">
-        <v>122.52420536036979</v>
+        <v>118.20565462224307</v>
       </c>
       <c r="G83">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H83">
-        <v>123.37454266655406</v>
+        <v>137.11687042498204</v>
       </c>
       <c r="I83">
-        <v>22.588730543184948</v>
+        <v>341.38458554575021</v>
       </c>
       <c r="J83">
-        <v>1.2084588611812876</v>
+        <v>1.3445489445176992</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5495,28 +5491,28 @@
         <v>17</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>0.40465777412228132</v>
+        <v>0.41722541578774947</v>
       </c>
       <c r="E84">
-        <v>53375</v>
+        <v>55748</v>
       </c>
       <c r="F84">
-        <v>121.4520093676815</v>
+        <v>119.89364640883979</v>
       </c>
       <c r="G84">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H84">
-        <v>120.3743417478868</v>
+        <v>118.32503359025804</v>
       </c>
       <c r="I84">
-        <v>39.846326208130506</v>
+        <v>67.365748324518023</v>
       </c>
       <c r="J84">
-        <v>1.2510968195962806</v>
+        <v>1.3413011947331419</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5554,31 +5550,31 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>0.39724765339102225</v>
+        <v>0.40208088634801925</v>
       </c>
       <c r="E85">
-        <v>44802</v>
+        <v>52571</v>
       </c>
       <c r="F85">
-        <v>142.04260970492388</v>
+        <v>122.52420536036979</v>
       </c>
       <c r="G85">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H85">
-        <v>141.50779291080278</v>
+        <v>123.37454266655406</v>
       </c>
       <c r="I85">
-        <v>402.47483302638187</v>
+        <v>22.588730543184948</v>
       </c>
       <c r="J85">
-        <v>0.90641786499414745</v>
+        <v>1.2084588611812876</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5616,31 +5612,31 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>0.3804924832606229</v>
+        <v>0.40465777412228132</v>
       </c>
       <c r="E86">
-        <v>63607</v>
+        <v>53375</v>
       </c>
       <c r="F86">
-        <v>95.828760985426129</v>
+        <v>121.4520093676815</v>
       </c>
       <c r="G86">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H86">
-        <v>129.71966737610029</v>
+        <v>120.3743417478868</v>
       </c>
       <c r="I86">
-        <v>656.6190011465867</v>
+        <v>39.846326208130506</v>
       </c>
       <c r="J86">
-        <v>1.9083136452464811</v>
+        <v>1.2510968195962806</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5681,28 +5677,28 @@
         <v>18</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0.41991766144110454</v>
+        <v>0.39724765339102225</v>
       </c>
       <c r="E87">
-        <v>56333</v>
+        <v>44802</v>
       </c>
       <c r="F87">
-        <v>119.41419771714625</v>
+        <v>142.04260970492388</v>
       </c>
       <c r="G87">
         <v>73</v>
       </c>
       <c r="H87">
-        <v>147.18087551876519</v>
+        <v>141.50779291080278</v>
       </c>
       <c r="I87">
-        <v>201.93573952926971</v>
+        <v>402.47483302638187</v>
       </c>
       <c r="J87">
-        <v>1.4890479406009884</v>
+        <v>0.90641786499414745</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5743,28 +5739,28 @@
         <v>18</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>0.39662098794285439</v>
+        <v>0.3804924832606229</v>
       </c>
       <c r="E88">
-        <v>47777</v>
+        <v>63607</v>
       </c>
       <c r="F88">
-        <v>132.98771375347971</v>
+        <v>95.828760985426129</v>
       </c>
       <c r="G88">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H88">
-        <v>145.5203139910904</v>
+        <v>129.71966737610029</v>
       </c>
       <c r="I88">
-        <v>160.28744228241487</v>
+        <v>656.6190011465867</v>
       </c>
       <c r="J88">
-        <v>0.98907536193727963</v>
+        <v>1.9083136452464811</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5805,28 +5801,28 @@
         <v>18</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>0.38916417473672438</v>
+        <v>0.41991766144110454</v>
       </c>
       <c r="E89">
-        <v>41669</v>
+        <v>56333</v>
       </c>
       <c r="F89">
-        <v>149.61477357267992</v>
+        <v>119.41419771714625</v>
       </c>
       <c r="G89">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H89">
-        <v>134.83814436909194</v>
+        <v>147.18087551876519</v>
       </c>
       <c r="I89">
-        <v>104.81178746674911</v>
+        <v>201.93573952926971</v>
       </c>
       <c r="J89">
-        <v>0.8557622871331495</v>
+        <v>1.4890479406009884</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5864,31 +5860,31 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0.49865509442367006</v>
+        <v>0.39662098794285439</v>
       </c>
       <c r="E90">
-        <v>63297</v>
+        <v>47777</v>
       </c>
       <c r="F90">
-        <v>126.20362734410793</v>
+        <v>132.98771375347971</v>
       </c>
       <c r="G90">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H90">
-        <v>117.06726192095196</v>
+        <v>145.5203139910904</v>
       </c>
       <c r="I90">
-        <v>694.69128729311751</v>
+        <v>160.28744228241487</v>
       </c>
       <c r="J90">
-        <v>1.744952777149527</v>
+        <v>0.98907536193727963</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5926,31 +5922,31 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>0.51340448567365005</v>
+        <v>0.38916417473672438</v>
       </c>
       <c r="E91">
-        <v>51799</v>
+        <v>41669</v>
       </c>
       <c r="F91">
-        <v>158.77897256703798</v>
+        <v>149.61477357267992</v>
       </c>
       <c r="G91">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H91">
-        <v>117.09268983067795</v>
+        <v>134.83814436909194</v>
       </c>
       <c r="I91">
-        <v>303.17303556696243</v>
+        <v>104.81178746674911</v>
       </c>
       <c r="J91">
-        <v>1.0144866066465608</v>
+        <v>0.8557622871331495</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5991,28 +5987,28 @@
         <v>19</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0.49733228662288059</v>
+        <v>0.49865509442367006</v>
       </c>
       <c r="E92">
-        <v>49510</v>
+        <v>63297</v>
       </c>
       <c r="F92">
-        <v>160.91941022015754</v>
+        <v>126.20362734410793</v>
       </c>
       <c r="G92">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H92">
-        <v>104.77738036587834</v>
+        <v>117.06726192095196</v>
       </c>
       <c r="I92">
-        <v>33.511151553720346</v>
+        <v>694.69128729311751</v>
       </c>
       <c r="J92">
-        <v>0.97873493447026683</v>
+        <v>1.744952777149527</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -6053,28 +6049,28 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>0.4501941108554261</v>
+        <v>0.51340448567365005</v>
       </c>
       <c r="E93">
-        <v>51708</v>
+        <v>51799</v>
       </c>
       <c r="F93">
-        <v>139.47512957376034</v>
+        <v>158.77897256703798</v>
       </c>
       <c r="G93">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H93">
-        <v>116.98624477115979</v>
+        <v>117.09268983067795</v>
       </c>
       <c r="I93">
-        <v>27.408234736913393</v>
+        <v>303.17303556696243</v>
       </c>
       <c r="J93">
-        <v>1.2231350875032323</v>
+        <v>1.0144866066465608</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -6115,28 +6111,28 @@
         <v>19</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>0.48293027989516918</v>
+        <v>0.49733228662288059</v>
       </c>
       <c r="E94">
-        <v>61978</v>
+        <v>49510</v>
       </c>
       <c r="F94">
-        <v>124.82500242021362</v>
+        <v>160.91941022015754</v>
       </c>
       <c r="G94">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H94">
-        <v>100.59202083411671</v>
+        <v>104.77738036587834</v>
       </c>
       <c r="I94">
-        <v>47.719900730815006</v>
+        <v>33.511151553720346</v>
       </c>
       <c r="J94">
-        <v>1.3179635815086614</v>
+        <v>0.97873493447026683</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -6174,31 +6170,31 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0.44848515379053006</v>
+        <v>0.4501941108554261</v>
       </c>
       <c r="E95">
-        <v>53494</v>
+        <v>51708</v>
       </c>
       <c r="F95">
-        <v>134.30670729427598</v>
+        <v>139.47512957376034</v>
       </c>
       <c r="G95">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H95">
-        <v>113.21242403481071</v>
+        <v>116.98624477115979</v>
       </c>
       <c r="I95">
-        <v>1112.0261133783722</v>
+        <v>27.408234736913393</v>
       </c>
       <c r="J95">
-        <v>1.2273518347055574</v>
+        <v>1.2231350875032323</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -6236,31 +6232,31 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>0.46944483146763188</v>
+        <v>0.48293027989516918</v>
       </c>
       <c r="E96">
-        <v>46716</v>
+        <v>61978</v>
       </c>
       <c r="F96">
-        <v>160.98062762222793</v>
+        <v>124.82500242021362</v>
       </c>
       <c r="G96">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H96">
-        <v>124.2688218291684</v>
+        <v>100.59202083411671</v>
       </c>
       <c r="I96">
-        <v>256.32157938372126</v>
+        <v>47.719900730815006</v>
       </c>
       <c r="J96">
-        <v>0.88839958228962435</v>
+        <v>1.3179635815086614</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6301,28 +6297,28 @@
         <v>20</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0.46295233022915766</v>
+        <v>0.44848515379053006</v>
       </c>
       <c r="E97">
-        <v>42495</v>
+        <v>53494</v>
       </c>
       <c r="F97">
-        <v>174.52319096364278</v>
+        <v>134.30670729427598</v>
       </c>
       <c r="G97">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H97">
-        <v>124.66599788961277</v>
+        <v>113.21242403481071</v>
       </c>
       <c r="I97">
-        <v>708.67220046750208</v>
+        <v>1112.0261133783722</v>
       </c>
       <c r="J97">
-        <v>0.8147875820184235</v>
+        <v>1.2273518347055574</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6363,28 +6359,28 @@
         <v>20</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>0.41331947790322321</v>
+        <v>0.46944483146763188</v>
       </c>
       <c r="E98">
-        <v>50406</v>
+        <v>46716</v>
       </c>
       <c r="F98">
-        <v>131.35854858548586</v>
+        <v>160.98062762222793</v>
       </c>
       <c r="G98">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H98">
-        <v>116.70263196438815</v>
+        <v>124.2688218291684</v>
       </c>
       <c r="I98">
-        <v>12.218319713454786</v>
+        <v>256.32157938372126</v>
       </c>
       <c r="J98">
-        <v>1.1473527480418855</v>
+        <v>0.88839958228962435</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6425,28 +6421,28 @@
         <v>20</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>0.42495582941815685</v>
+        <v>0.46295233022915766</v>
       </c>
       <c r="E99">
-        <v>54143</v>
+        <v>42495</v>
       </c>
       <c r="F99">
-        <v>125.73499806069113</v>
+        <v>174.52319096364278</v>
       </c>
       <c r="G99">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H99">
-        <v>126.40990050808317</v>
+        <v>124.66599788961277</v>
       </c>
       <c r="I99">
-        <v>38.937257066894105</v>
+        <v>708.67220046750208</v>
       </c>
       <c r="J99">
-        <v>1.3688224830314479</v>
+        <v>0.8147875820184235</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -6484,31 +6480,31 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>0.45350047491490486</v>
+        <v>0.41331947790322321</v>
       </c>
       <c r="E100">
-        <v>59484</v>
+        <v>50406</v>
       </c>
       <c r="F100">
-        <v>122.13279201129716</v>
+        <v>131.35854858548586</v>
       </c>
       <c r="G100">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H100">
-        <v>156.0802586705143</v>
+        <v>116.70263196438815</v>
       </c>
       <c r="I100">
-        <v>447.04290692476593</v>
+        <v>12.218319713454786</v>
       </c>
       <c r="J100">
-        <v>2.3390703006278746</v>
+        <v>1.1473527480418855</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6546,31 +6542,31 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101">
-        <v>0.50253369099269696</v>
+        <v>0.42495582941815685</v>
       </c>
       <c r="E101">
-        <v>65176</v>
+        <v>54143</v>
       </c>
       <c r="F101">
-        <v>123.51854977292255</v>
+        <v>125.73499806069113</v>
       </c>
       <c r="G101">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H101">
-        <v>127.50177866436019</v>
+        <v>126.40990050808317</v>
       </c>
       <c r="I101">
-        <v>190.12100734923149</v>
+        <v>38.937257066894105</v>
       </c>
       <c r="J101">
-        <v>1.7860086218052098</v>
+        <v>1.3688224830314479</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -6611,28 +6607,28 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>0.45307961841011873</v>
+        <v>0.45350047491490486</v>
       </c>
       <c r="E102">
-        <v>65536</v>
+        <v>59484</v>
       </c>
       <c r="F102">
-        <v>110.75141906738281</v>
+        <v>122.13279201129716</v>
       </c>
       <c r="G102">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H102">
-        <v>142.51382715793207</v>
+        <v>156.0802586705143</v>
       </c>
       <c r="I102">
-        <v>93.159642800952454</v>
+        <v>447.04290692476593</v>
       </c>
       <c r="J102">
-        <v>2.0805105044948142</v>
+        <v>2.3390703006278746</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -6673,28 +6669,28 @@
         <v>21</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>0.4432554093356984</v>
+        <v>0.50253369099269696</v>
       </c>
       <c r="E103">
-        <v>61872</v>
+        <v>65176</v>
       </c>
       <c r="F103">
-        <v>114.76635634859063</v>
+        <v>123.51854977292255</v>
       </c>
       <c r="G103">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H103">
-        <v>135.40917892099151</v>
+        <v>127.50177866436019</v>
       </c>
       <c r="I103">
-        <v>211.02651420351114</v>
+        <v>190.12100734923149</v>
       </c>
       <c r="J103">
-        <v>2.4397183882720053</v>
+        <v>1.7860086218052098</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -6735,28 +6731,28 @@
         <v>21</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>0.40258245591431358</v>
+        <v>0.45307961841011873</v>
       </c>
       <c r="E104">
-        <v>62708</v>
+        <v>65536</v>
       </c>
       <c r="F104">
-        <v>102.84580914715826</v>
+        <v>110.75141906738281</v>
       </c>
       <c r="G104">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H104">
-        <v>156.43179207042871</v>
+        <v>142.51382715793207</v>
       </c>
       <c r="I104">
-        <v>330.79412472658782</v>
+        <v>93.159642800952454</v>
       </c>
       <c r="J104">
-        <v>2.6157326056741632</v>
+        <v>2.0805105044948142</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -6794,31 +6790,31 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>0.50826987401521329</v>
+        <v>0.4432554093356984</v>
       </c>
       <c r="E105">
-        <v>53485</v>
+        <v>61872</v>
       </c>
       <c r="F105">
-        <v>152.23589791530335</v>
+        <v>114.76635634859063</v>
       </c>
       <c r="G105">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="H105">
-        <v>118.49644982613604</v>
+        <v>135.40917892099151</v>
       </c>
       <c r="I105">
-        <v>629.15537598677179</v>
+        <v>211.02651420351114</v>
       </c>
       <c r="J105">
-        <v>1.2564487535256161</v>
+        <v>2.4397183882720053</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -6856,31 +6852,31 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>0.4545410054812471</v>
+        <v>0.40258245591431358</v>
       </c>
       <c r="E106">
-        <v>52634</v>
+        <v>62708</v>
       </c>
       <c r="F106">
-        <v>138.34434016035263</v>
+        <v>102.84580914715826</v>
       </c>
       <c r="G106">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H106">
-        <v>139.34785850589194</v>
+        <v>156.43179207042871</v>
       </c>
       <c r="I106">
-        <v>102.00759863533754</v>
+        <v>330.79412472658782</v>
       </c>
       <c r="J106">
-        <v>1.6018635469128886</v>
+        <v>2.6157326056741632</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6921,28 +6917,28 @@
         <v>22</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.42707553044648994</v>
+        <v>0.50826987401521329</v>
       </c>
       <c r="E107">
-        <v>52939</v>
+        <v>53485</v>
       </c>
       <c r="F107">
-        <v>129.23604525963844</v>
+        <v>152.23589791530335</v>
       </c>
       <c r="G107">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H107">
-        <v>139.94040617919526</v>
+        <v>118.49644982613604</v>
       </c>
       <c r="I107">
-        <v>47.859773724690321</v>
+        <v>629.15537598677179</v>
       </c>
       <c r="J107">
-        <v>1.5933811811492664</v>
+        <v>1.2564487535256161</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6983,28 +6979,28 @@
         <v>22</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>0.46078837122664879</v>
+        <v>0.4545410054812471</v>
       </c>
       <c r="E108">
-        <v>57689</v>
+        <v>52634</v>
       </c>
       <c r="F108">
-        <v>127.95675085371562</v>
+        <v>138.34434016035263</v>
       </c>
       <c r="G108">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H108">
-        <v>167.6014047100708</v>
+        <v>139.34785850589194</v>
       </c>
       <c r="I108">
-        <v>18.264412411041661</v>
+        <v>102.00759863533754</v>
       </c>
       <c r="J108">
-        <v>2.4046508073331689</v>
+        <v>1.6018635469128886</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7045,28 +7041,28 @@
         <v>22</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>0.51710580065359479</v>
+        <v>0.42707553044648994</v>
       </c>
       <c r="E109">
-        <v>60566</v>
+        <v>52939</v>
       </c>
       <c r="F109">
-        <v>136.77452696232208</v>
+        <v>129.23604525963844</v>
       </c>
       <c r="G109">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H109">
-        <v>134.32528579328508</v>
+        <v>139.94040617919526</v>
       </c>
       <c r="I109">
-        <v>265.7494643980026</v>
+        <v>47.859773724690321</v>
       </c>
       <c r="J109">
-        <v>1.7968918254543826</v>
+        <v>1.5933811811492664</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -7104,31 +7100,31 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>0.48207040176502547</v>
+        <v>0.46078837122664879</v>
       </c>
       <c r="E110">
-        <v>57680</v>
+        <v>57689</v>
       </c>
       <c r="F110">
-        <v>133.8874653259362</v>
+        <v>127.95675085371562</v>
       </c>
       <c r="G110">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H110">
-        <v>124.27508533227463</v>
+        <v>167.6014047100708</v>
       </c>
       <c r="I110">
-        <v>458.42582251262428</v>
+        <v>18.264412411041661</v>
       </c>
       <c r="J110">
-        <v>1.7484464515849512</v>
+        <v>2.4046508073331689</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -7166,31 +7162,31 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111">
-        <v>0.41196545855506017</v>
+        <v>0.51710580065359479</v>
       </c>
       <c r="E111">
-        <v>62659</v>
+        <v>60566</v>
       </c>
       <c r="F111">
-        <v>105.32514084169871</v>
+        <v>136.77452696232208</v>
       </c>
       <c r="G111">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H111">
-        <v>130.52066446832086</v>
+        <v>134.32528579328508</v>
       </c>
       <c r="I111">
-        <v>272.69623631500855</v>
+        <v>265.7494643980026</v>
       </c>
       <c r="J111">
-        <v>2.0100903062267537</v>
+        <v>1.7968918254543826</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -7231,28 +7227,28 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>0.37641843998194224</v>
+        <v>0.48207040176502547</v>
       </c>
       <c r="E112">
-        <v>53647</v>
+        <v>57680</v>
       </c>
       <c r="F112">
-        <v>112.40358267936698</v>
+        <v>133.8874653259362</v>
       </c>
       <c r="G112">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H112">
-        <v>144.49706265989744</v>
+        <v>124.27508533227463</v>
       </c>
       <c r="I112">
-        <v>813.80372579858181</v>
+        <v>458.42582251262428</v>
       </c>
       <c r="J112">
-        <v>1.7635577951120822</v>
+        <v>1.7484464515849512</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -7293,28 +7289,28 @@
         <v>23</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>0.45554083618981417</v>
+        <v>0.41196545855506017</v>
       </c>
       <c r="E113">
-        <v>56483</v>
+        <v>62659</v>
       </c>
       <c r="F113">
-        <v>129.20052051059611</v>
+        <v>105.32514084169871</v>
       </c>
       <c r="G113">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H113">
-        <v>120.80483406938379</v>
+        <v>130.52066446832086</v>
       </c>
       <c r="I113">
-        <v>21.312630236183175</v>
+        <v>272.69623631500855</v>
       </c>
       <c r="J113">
-        <v>1.7377640943728714</v>
+        <v>2.0100903062267537</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -7355,28 +7351,28 @@
         <v>23</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>0.44993967432123622</v>
+        <v>0.37641843998194224</v>
       </c>
       <c r="E114">
-        <v>53398</v>
+        <v>53647</v>
       </c>
       <c r="F114">
-        <v>134.98453125585229</v>
+        <v>112.40358267936698</v>
       </c>
       <c r="G114">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H114">
-        <v>152.82926801307235</v>
+        <v>144.49706265989744</v>
       </c>
       <c r="I114">
-        <v>236.56368994386781</v>
+        <v>813.80372579858181</v>
       </c>
       <c r="J114">
-        <v>1.5146984146456413</v>
+        <v>1.7635577951120822</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -7414,31 +7410,31 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D115">
-        <v>0.45449212819806001</v>
+        <v>0.45554083618981417</v>
       </c>
       <c r="E115">
-        <v>65504</v>
+        <v>56483</v>
       </c>
       <c r="F115">
-        <v>111.15096787982414</v>
+        <v>129.20052051059611</v>
       </c>
       <c r="G115">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H115">
-        <v>114.98867847948554</v>
+        <v>120.80483406938379</v>
       </c>
       <c r="I115">
-        <v>179.51338740460167</v>
+        <v>21.312630236183175</v>
       </c>
       <c r="J115">
-        <v>1.4606503446397645</v>
+        <v>1.7377640943728714</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -7476,31 +7472,31 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>0.4247875367547182</v>
+        <v>0.44993967432123622</v>
       </c>
       <c r="E116">
-        <v>58708</v>
+        <v>53398</v>
       </c>
       <c r="F116">
-        <v>115.91220957961437</v>
+        <v>134.98453125585229</v>
       </c>
       <c r="G116">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H116">
-        <v>140.45486527899564</v>
+        <v>152.82926801307235</v>
       </c>
       <c r="I116">
-        <v>14.082153922340915</v>
+        <v>236.56368994386781</v>
       </c>
       <c r="J116">
-        <v>1.4698624252754182</v>
+        <v>1.5146984146456413</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -7541,28 +7537,28 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>0.45456522564200902</v>
+        <v>0.45449212819806001</v>
       </c>
       <c r="E117">
-        <v>66972</v>
+        <v>65504</v>
       </c>
       <c r="F117">
-        <v>108.732067132533</v>
+        <v>111.15096787982414</v>
       </c>
       <c r="G117">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H117">
-        <v>113.39367160474924</v>
+        <v>114.98867847948554</v>
       </c>
       <c r="I117">
-        <v>3.3851375012865379</v>
+        <v>179.51338740460167</v>
       </c>
       <c r="J117">
-        <v>1.4208273123112174</v>
+        <v>1.4606503446397645</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -7603,28 +7599,28 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>0.38328398163462613</v>
+        <v>0.4247875367547182</v>
       </c>
       <c r="E118">
-        <v>57101</v>
+        <v>58708</v>
       </c>
       <c r="F118">
-        <v>107.53049859021733</v>
+        <v>115.91220957961437</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H118">
-        <v>101.94631116302402</v>
+        <v>140.45486527899564</v>
       </c>
       <c r="I118">
-        <v>1251.3937359078554</v>
+        <v>14.082153922340915</v>
       </c>
       <c r="J118">
-        <v>1.0505037872635345</v>
+        <v>1.4698624252754182</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -7665,28 +7661,28 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>0.42805407487974817</v>
+        <v>0.45456522564200902</v>
       </c>
       <c r="E119">
-        <v>64948</v>
+        <v>66972</v>
       </c>
       <c r="F119">
-        <v>105.58143437827185</v>
+        <v>108.732067132533</v>
       </c>
       <c r="G119">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H119">
-        <v>114.34810763491531</v>
+        <v>113.39367160474924</v>
       </c>
       <c r="I119">
-        <v>198.5811090452747</v>
+        <v>3.3851375012865379</v>
       </c>
       <c r="J119">
-        <v>1.4090898212109491</v>
+        <v>1.4208273123112174</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -7724,31 +7720,31 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>0.40824448030027005</v>
+        <v>0.38328398163462613</v>
       </c>
       <c r="E120">
-        <v>58963</v>
+        <v>57101</v>
       </c>
       <c r="F120">
-        <v>110.91632040432135</v>
+        <v>107.53049859021733</v>
       </c>
       <c r="G120">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H120">
-        <v>143.87373457144415</v>
+        <v>101.94631116302402</v>
       </c>
       <c r="I120">
-        <v>436.43191470577187</v>
+        <v>1251.3937359078554</v>
       </c>
       <c r="J120">
-        <v>1.4412098803133384</v>
+        <v>1.0505037872635345</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -7786,31 +7782,31 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>0.43784532456014191</v>
+        <v>0.42805407487974817</v>
       </c>
       <c r="E121">
-        <v>66299</v>
+        <v>64948</v>
       </c>
       <c r="F121">
-        <v>105.7958038582784</v>
+        <v>105.58143437827185</v>
       </c>
       <c r="G121">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H121">
-        <v>119.55891085854273</v>
+        <v>114.34810763491531</v>
       </c>
       <c r="I121">
-        <v>345.53606688530249</v>
+        <v>198.5811090452747</v>
       </c>
       <c r="J121">
-        <v>1.399685853219194</v>
+        <v>1.4090898212109491</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -7851,28 +7847,28 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>0.44722508119996163</v>
+        <v>0.40824448030027005</v>
       </c>
       <c r="E122">
-        <v>67525</v>
+        <v>58963</v>
       </c>
       <c r="F122">
-        <v>106.10021473528323</v>
+        <v>110.91632040432135</v>
       </c>
       <c r="G122">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H122">
-        <v>107.49631109428995</v>
+        <v>143.87373457144415</v>
       </c>
       <c r="I122">
-        <v>102.28027380404436</v>
+        <v>436.43191470577187</v>
       </c>
       <c r="J122">
-        <v>1.400846075211899</v>
+        <v>1.4412098803133384</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -7913,28 +7909,28 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>0.43639923114722662</v>
+        <v>0.43784532456014191</v>
       </c>
       <c r="E123">
-        <v>66141</v>
+        <v>66299</v>
       </c>
       <c r="F123">
-        <v>105.69828094525332</v>
+        <v>105.7958038582784</v>
       </c>
       <c r="G123">
         <v>111</v>
       </c>
       <c r="H123">
-        <v>115.5415030991863</v>
+        <v>119.55891085854273</v>
       </c>
       <c r="I123">
-        <v>556.30037060438906</v>
+        <v>345.53606688530249</v>
       </c>
       <c r="J123">
-        <v>1.3894482660293663</v>
+        <v>1.399685853219194</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -7975,28 +7971,28 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>0.41715075776643173</v>
+        <v>0.44722508119996163</v>
       </c>
       <c r="E124">
-        <v>61086</v>
+        <v>67525</v>
       </c>
       <c r="F124">
-        <v>109.39716137903939</v>
+        <v>106.10021473528323</v>
       </c>
       <c r="G124">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H124">
-        <v>118.99120494815361</v>
+        <v>107.49631109428995</v>
       </c>
       <c r="I124">
-        <v>598.68729829480583</v>
+        <v>102.28027380404436</v>
       </c>
       <c r="J124">
-        <v>1.2980651400463998</v>
+        <v>1.400846075211899</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -8034,31 +8030,31 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>0.46135760742764914</v>
+        <v>0.43639923114722662</v>
       </c>
       <c r="E125">
-        <v>69515</v>
+        <v>66141</v>
       </c>
       <c r="F125">
-        <v>106.31972955477235</v>
+        <v>105.69828094525332</v>
       </c>
       <c r="G125">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H125">
-        <v>118.45165115812624</v>
+        <v>115.5415030991863</v>
       </c>
       <c r="I125">
-        <v>630.80457676689696</v>
+        <v>556.30037060438906</v>
       </c>
       <c r="J125">
-        <v>1.6205381582488259</v>
+        <v>1.3894482660293663</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -8096,31 +8092,31 @@
         <v>0</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>0.49049414870879077</v>
+        <v>0.41715075776643173</v>
       </c>
       <c r="E126">
-        <v>71314</v>
+        <v>61086</v>
       </c>
       <c r="F126">
-        <v>110.1827831842275</v>
+        <v>109.39716137903939</v>
       </c>
       <c r="G126">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H126">
-        <v>109.05081610455696</v>
+        <v>118.99120494815361</v>
       </c>
       <c r="I126">
-        <v>124.42778851242754</v>
+        <v>598.68729829480583</v>
       </c>
       <c r="J126">
-        <v>1.6124666059693766</v>
+        <v>1.2980651400463998</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -8161,28 +8157,28 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>0.4774687584895409</v>
+        <v>0.46135760742764914</v>
       </c>
       <c r="E127">
-        <v>72987</v>
+        <v>69515</v>
       </c>
       <c r="F127">
-        <v>104.79827914560127</v>
+        <v>106.31972955477235</v>
       </c>
       <c r="G127">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H127">
-        <v>108.15113007529106</v>
+        <v>118.45165115812624</v>
       </c>
       <c r="I127">
-        <v>69.736206099241983</v>
+        <v>630.80457676689696</v>
       </c>
       <c r="J127">
-        <v>1.6336254956783476</v>
+        <v>1.6205381582488259</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -8223,28 +8219,28 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>0.46024385457116834</v>
+        <v>0.49049414870879077</v>
       </c>
       <c r="E128">
-        <v>70149</v>
+        <v>71314</v>
       </c>
       <c r="F128">
-        <v>105.1044776119403</v>
+        <v>110.1827831842275</v>
       </c>
       <c r="G128">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H128">
-        <v>101.13371865294438</v>
+        <v>109.05081610455696</v>
       </c>
       <c r="I128">
-        <v>775.98652549571864</v>
+        <v>124.42778851242754</v>
       </c>
       <c r="J128">
-        <v>1.5482993606722486</v>
+        <v>1.6124666059693766</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -8285,28 +8281,28 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>0.45422658035300512</v>
+        <v>0.4774687584895409</v>
       </c>
       <c r="E129">
-        <v>65550</v>
+        <v>72987</v>
       </c>
       <c r="F129">
-        <v>111.00807017543859</v>
+        <v>104.79827914560127</v>
       </c>
       <c r="G129">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H129">
-        <v>119.29651301665878</v>
+        <v>108.15113007529106</v>
       </c>
       <c r="I129">
-        <v>31.295998462863011</v>
+        <v>69.736206099241983</v>
       </c>
       <c r="J129">
-        <v>1.6466633868145162</v>
+        <v>1.6336254956783476</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -8344,31 +8340,31 @@
         <v>0</v>
       </c>
       <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
         <v>4</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
       <c r="D130">
-        <v>0.68869696284177895</v>
+        <v>0.46024385457116834</v>
       </c>
       <c r="E130">
-        <v>84453</v>
+        <v>70149</v>
       </c>
       <c r="F130">
-        <v>130.63747883438126</v>
+        <v>105.1044776119403</v>
       </c>
       <c r="G130">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="H130">
-        <v>71.621171523275024</v>
+        <v>101.13371865294438</v>
       </c>
       <c r="I130">
-        <v>243.79062126870025</v>
+        <v>775.98652549571864</v>
       </c>
       <c r="J130">
-        <v>2.7259994082493644</v>
+        <v>1.5482993606722486</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -8406,31 +8402,31 @@
         <v>0</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D131">
-        <v>0.52011041147306514</v>
+        <v>0.45422658035300512</v>
       </c>
       <c r="E131">
-        <v>67945</v>
+        <v>65550</v>
       </c>
       <c r="F131">
-        <v>122.62887629700494</v>
+        <v>111.00807017543859</v>
       </c>
       <c r="G131">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H131">
-        <v>109.12458918786092</v>
+        <v>119.29651301665878</v>
       </c>
       <c r="I131">
-        <v>264.58686962562462</v>
+        <v>31.295998462863011</v>
       </c>
       <c r="J131">
-        <v>1.8739971651769876</v>
+        <v>1.6466633868145162</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -8471,28 +8467,28 @@
         <v>4</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>0.44872042643463256</v>
+        <v>0.68869696284177895</v>
       </c>
       <c r="E132">
-        <v>56427</v>
+        <v>84453</v>
       </c>
       <c r="F132">
-        <v>127.39241852304748</v>
+        <v>130.63747883438126</v>
       </c>
       <c r="G132">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="H132">
-        <v>134.88416181711719</v>
+        <v>71.621171523275024</v>
       </c>
       <c r="I132">
-        <v>206.12232304721744</v>
+        <v>243.79062126870025</v>
       </c>
       <c r="J132">
-        <v>1.510024008087673</v>
+        <v>2.7259994082493644</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -8533,28 +8529,28 @@
         <v>4</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>0.47015670444012975</v>
+        <v>0.52011041147306514</v>
       </c>
       <c r="E133">
-        <v>60527</v>
+        <v>67945</v>
       </c>
       <c r="F133">
-        <v>124.43661506435144</v>
+        <v>122.62887629700494</v>
       </c>
       <c r="G133">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H133">
-        <v>128.76819449555262</v>
+        <v>109.12458918786092</v>
       </c>
       <c r="I133">
-        <v>468.57872493430432</v>
+        <v>264.58686962562462</v>
       </c>
       <c r="J133">
-        <v>1.7390785006144001</v>
+        <v>1.8739971651769876</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -8595,28 +8591,28 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>0.45423182389296385</v>
+        <v>0.44872042643463256</v>
       </c>
       <c r="E134">
-        <v>59385</v>
+        <v>56427</v>
       </c>
       <c r="F134">
-        <v>122.53368695798602</v>
+        <v>127.39241852304748</v>
       </c>
       <c r="G134">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H134">
-        <v>136.4532125950677</v>
+        <v>134.88416181711719</v>
       </c>
       <c r="I134">
-        <v>385.57683687057124</v>
+        <v>206.12232304721744</v>
       </c>
       <c r="J134">
-        <v>1.646061790340436</v>
+        <v>1.510024008087673</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -8654,31 +8650,31 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>0.40437599627259219</v>
+        <v>0.47015670444012975</v>
       </c>
       <c r="E135">
-        <v>51470</v>
+        <v>60527</v>
       </c>
       <c r="F135">
-        <v>125.85947153681757</v>
+        <v>124.43661506435144</v>
       </c>
       <c r="G135">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H135">
-        <v>158.12163164011406</v>
+        <v>128.76819449555262</v>
       </c>
       <c r="I135">
-        <v>492.7965906701117</v>
+        <v>468.57872493430432</v>
       </c>
       <c r="J135">
-        <v>1.3596220882678622</v>
+        <v>1.7390785006144001</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -8716,31 +8712,31 @@
         <v>0</v>
       </c>
       <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
         <v>5</v>
       </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
       <c r="D136">
-        <v>0.38908577132972177</v>
+        <v>0.45423182389296385</v>
       </c>
       <c r="E136">
-        <v>47795</v>
+        <v>59385</v>
       </c>
       <c r="F136">
-        <v>130.4120096244377</v>
+        <v>122.53368695798602</v>
       </c>
       <c r="G136">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H136">
-        <v>146.4741256819409</v>
+        <v>136.4532125950677</v>
       </c>
       <c r="I136">
-        <v>10.823032759612019</v>
+        <v>385.57683687057124</v>
       </c>
       <c r="J136">
-        <v>1.179341456660532</v>
+        <v>1.646061790340436</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -8781,28 +8777,28 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>0.46349740869249084</v>
+        <v>0.40437599627259219</v>
       </c>
       <c r="E137">
-        <v>57205</v>
+        <v>51470</v>
       </c>
       <c r="F137">
-        <v>129.79800716720567</v>
+        <v>125.85947153681757</v>
       </c>
       <c r="G137">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H137">
-        <v>105.17015203589941</v>
+        <v>158.12163164011406</v>
       </c>
       <c r="I137">
-        <v>808.18321498491275</v>
+        <v>492.7965906701117</v>
       </c>
       <c r="J137">
-        <v>1.3466324318326457</v>
+        <v>1.3596220882678622</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -8843,28 +8839,28 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>0.47356681568307846</v>
+        <v>0.38908577132972177</v>
       </c>
       <c r="E138">
-        <v>55298</v>
+        <v>47795</v>
       </c>
       <c r="F138">
-        <v>137.19129082426127</v>
+        <v>130.4120096244377</v>
       </c>
       <c r="G138">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H138">
-        <v>128.99389978059003</v>
+        <v>146.4741256819409</v>
       </c>
       <c r="I138">
-        <v>490.31126143475313</v>
+        <v>10.823032759612019</v>
       </c>
       <c r="J138">
-        <v>1.5388976994021073</v>
+        <v>1.179341456660532</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -8905,28 +8901,28 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139">
-        <v>0.374084627738626</v>
+        <v>0.46349740869249084</v>
       </c>
       <c r="E139">
-        <v>48840</v>
+        <v>57205</v>
       </c>
       <c r="F139">
-        <v>122.7012285012285</v>
+        <v>129.79800716720567</v>
       </c>
       <c r="G139">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H139">
-        <v>115.41997298204114</v>
+        <v>105.17015203589941</v>
       </c>
       <c r="I139">
-        <v>46.011727342150415</v>
+        <v>808.18321498491275</v>
       </c>
       <c r="J139">
-        <v>1.0517163353698131</v>
+        <v>1.3466324318326457</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -8964,31 +8960,31 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>0.40130615331911085</v>
+        <v>0.47356681568307846</v>
       </c>
       <c r="E140">
-        <v>51856</v>
+        <v>55298</v>
       </c>
       <c r="F140">
-        <v>123.97425563097809</v>
+        <v>137.19129082426127</v>
       </c>
       <c r="G140">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H140">
-        <v>119.17456342263991</v>
+        <v>128.99389978059003</v>
       </c>
       <c r="I140">
-        <v>987.53018480841956</v>
+        <v>490.31126143475313</v>
       </c>
       <c r="J140">
-        <v>1.2569856140354665</v>
+        <v>1.5388976994021073</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9026,31 +9022,31 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>0.44480250331591481</v>
+        <v>0.374084627738626</v>
       </c>
       <c r="E141">
-        <v>57728</v>
+        <v>48840</v>
       </c>
       <c r="F141">
-        <v>123.43417405764967</v>
+        <v>122.7012285012285</v>
       </c>
       <c r="G141">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H141">
-        <v>111.30081827152884</v>
+        <v>115.41997298204114</v>
       </c>
       <c r="I141">
-        <v>60.045783205848828</v>
+        <v>46.011727342150415</v>
       </c>
       <c r="J141">
-        <v>1.2963823799696534</v>
+        <v>1.0517163353698131</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -9091,28 +9087,28 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>0.44576625347571791</v>
+        <v>0.40130615331911085</v>
       </c>
       <c r="E142">
-        <v>59654</v>
+        <v>51856</v>
       </c>
       <c r="F142">
-        <v>119.70776477688001</v>
+        <v>123.97425563097809</v>
       </c>
       <c r="G142">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H142">
-        <v>109.21323825852703</v>
+        <v>119.17456342263991</v>
       </c>
       <c r="I142">
-        <v>116.87579071685973</v>
+        <v>987.53018480841956</v>
       </c>
       <c r="J142">
-        <v>1.3429442739226767</v>
+        <v>1.2569856140354665</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -9153,28 +9149,28 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>0.40482150989980342</v>
+        <v>0.44480250331591481</v>
       </c>
       <c r="E143">
-        <v>53281</v>
+        <v>57728</v>
       </c>
       <c r="F143">
-        <v>121.71550834256114</v>
+        <v>123.43417405764967</v>
       </c>
       <c r="G143">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H143">
-        <v>121.09057381156012</v>
+        <v>111.30081827152884</v>
       </c>
       <c r="I143">
-        <v>216.47683031620275</v>
+        <v>60.045783205848828</v>
       </c>
       <c r="J143">
-        <v>1.2636641564055153</v>
+        <v>1.2963823799696534</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -9215,28 +9211,28 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>0.4554518832797993</v>
+        <v>0.44576625347571791</v>
       </c>
       <c r="E144">
-        <v>64695</v>
+        <v>59654</v>
       </c>
       <c r="F144">
-        <v>112.77854548264935</v>
+        <v>119.70776477688001</v>
       </c>
       <c r="G144">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H144">
-        <v>108.62797217563292</v>
+        <v>109.21323825852703</v>
       </c>
       <c r="I144">
-        <v>155.9032539721608</v>
+        <v>116.87579071685973</v>
       </c>
       <c r="J144">
-        <v>1.4544918701044578</v>
+        <v>1.3429442739226767</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -9274,31 +9270,31 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>0.49775720062882528</v>
+        <v>0.40482150989980342</v>
       </c>
       <c r="E145">
-        <v>63195</v>
+        <v>53281</v>
       </c>
       <c r="F145">
-        <v>126.17971358493551</v>
+        <v>121.71550834256114</v>
       </c>
       <c r="G145">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H145">
-        <v>105.16343159418371</v>
+        <v>121.09057381156012</v>
       </c>
       <c r="I145">
-        <v>300.08097834059669</v>
+        <v>216.47683031620275</v>
       </c>
       <c r="J145">
-        <v>1.6288286747111764</v>
+        <v>1.2636641564055153</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -9336,31 +9332,31 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>0.4873819828970708</v>
+        <v>0.4554518832797993</v>
       </c>
       <c r="E146">
-        <v>64812</v>
+        <v>64695</v>
       </c>
       <c r="F146">
-        <v>120.46718200333271</v>
+        <v>112.77854548264935</v>
       </c>
       <c r="G146">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H146">
-        <v>105.95324614191949</v>
+        <v>108.62797217563292</v>
       </c>
       <c r="I146">
-        <v>32.757024076151339</v>
+        <v>155.9032539721608</v>
       </c>
       <c r="J146">
-        <v>1.536054193133165</v>
+        <v>1.4544918701044578</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -9401,28 +9397,28 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>0.4997443150039152</v>
+        <v>0.49775720062882528</v>
       </c>
       <c r="E147">
-        <v>64998</v>
+        <v>63195</v>
       </c>
       <c r="F147">
-        <v>123.16932828702421</v>
+        <v>126.17971358493551</v>
       </c>
       <c r="G147">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H147">
-        <v>97.515749859532562</v>
+        <v>105.16343159418371</v>
       </c>
       <c r="I147">
-        <v>868.72867082885909</v>
+        <v>300.08097834059669</v>
       </c>
       <c r="J147">
-        <v>1.5981372650732215</v>
+        <v>1.6288286747111764</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -9463,28 +9459,28 @@
         <v>7</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>0.40385925789427424</v>
+        <v>0.4873819828970708</v>
       </c>
       <c r="E148">
-        <v>53096</v>
+        <v>64812</v>
       </c>
       <c r="F148">
-        <v>121.84927301491638</v>
+        <v>120.46718200333271</v>
       </c>
       <c r="G148">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H148">
-        <v>121.87694767782202</v>
+        <v>105.95324614191949</v>
       </c>
       <c r="I148">
-        <v>365.3100324143237</v>
+        <v>32.757024076151339</v>
       </c>
       <c r="J148">
-        <v>1.1745736169349705</v>
+        <v>1.536054193133165</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -9525,28 +9521,28 @@
         <v>7</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>0.55588333922607347</v>
+        <v>0.4997443150039152</v>
       </c>
       <c r="E149">
-        <v>74575</v>
+        <v>64998</v>
       </c>
       <c r="F149">
-        <v>119.4112101910828</v>
+        <v>123.16932828702421</v>
       </c>
       <c r="G149">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H149">
-        <v>88.600796112396154</v>
+        <v>97.515749859532562</v>
       </c>
       <c r="I149">
-        <v>85.849560888215905</v>
+        <v>868.72867082885909</v>
       </c>
       <c r="J149">
-        <v>1.9747600664313161</v>
+        <v>1.5981372650732215</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -9584,31 +9580,31 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>0.3811361902136568</v>
+        <v>0.40385925789427424</v>
       </c>
       <c r="E150">
-        <v>54685</v>
+        <v>53096</v>
       </c>
       <c r="F150">
-        <v>111.65204352198958</v>
+        <v>121.84927301491638</v>
       </c>
       <c r="G150">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H150">
-        <v>144.66463318358373</v>
+        <v>121.87694767782202</v>
       </c>
       <c r="I150">
-        <v>151.42053827570626</v>
+        <v>365.3100324143237</v>
       </c>
       <c r="J150">
-        <v>1.2633485238291395</v>
+        <v>1.1745736169349705</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -9646,31 +9642,31 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151">
-        <v>0.37073051001166563</v>
+        <v>0.55588333922607347</v>
       </c>
       <c r="E151">
-        <v>51821</v>
+        <v>74575</v>
       </c>
       <c r="F151">
-        <v>114.60597055247872</v>
+        <v>119.4112101910828</v>
       </c>
       <c r="G151">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="H151">
-        <v>123.40488884018498</v>
+        <v>88.600796112396154</v>
       </c>
       <c r="I151">
-        <v>867.45886890870361</v>
+        <v>85.849560888215905</v>
       </c>
       <c r="J151">
-        <v>1.0340855608006558</v>
+        <v>1.9747600664313161</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -9711,28 +9707,28 @@
         <v>8</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>0.39530279945107627</v>
+        <v>0.3811361902136568</v>
       </c>
       <c r="E152">
-        <v>57375</v>
+        <v>54685</v>
       </c>
       <c r="F152">
-        <v>110.37275816993464</v>
+        <v>111.65204352198958</v>
       </c>
       <c r="G152">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H152">
-        <v>109.57254223950117</v>
+        <v>144.66463318358373</v>
       </c>
       <c r="I152">
-        <v>33.648599750297834</v>
+        <v>151.42053827570626</v>
       </c>
       <c r="J152">
-        <v>1.1267605397884528</v>
+        <v>1.2633485238291395</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -9773,28 +9769,28 @@
         <v>8</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>0.4273331505585119</v>
+        <v>0.37073051001166563</v>
       </c>
       <c r="E153">
-        <v>62039</v>
+        <v>51821</v>
       </c>
       <c r="F153">
-        <v>110.34597591837392</v>
+        <v>114.60597055247872</v>
       </c>
       <c r="G153">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H153">
-        <v>99.736641493057931</v>
+        <v>123.40488884018498</v>
       </c>
       <c r="I153">
-        <v>51.31334503335674</v>
+        <v>867.45886890870361</v>
       </c>
       <c r="J153">
-        <v>1.1923532363190976</v>
+        <v>1.0340855608006558</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -9835,28 +9831,28 @@
         <v>8</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>0.39602740673490261</v>
+        <v>0.39530279945107627</v>
       </c>
       <c r="E154">
-        <v>55768</v>
+        <v>57375</v>
       </c>
       <c r="F154">
-        <v>113.76138645818391</v>
+        <v>110.37275816993464</v>
       </c>
       <c r="G154">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H154">
-        <v>115.90995878468948</v>
+        <v>109.57254223950117</v>
       </c>
       <c r="I154">
-        <v>29.96053869739811</v>
+        <v>33.648599750297834</v>
       </c>
       <c r="J154">
-        <v>1.1121426689174863</v>
+        <v>1.1267605397884528</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -9894,31 +9890,31 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>0.41803766509660101</v>
+        <v>0.4273331505585119</v>
       </c>
       <c r="E155">
-        <v>55938</v>
+        <v>62039</v>
       </c>
       <c r="F155">
-        <v>119.71902820980371</v>
+        <v>110.34597591837392</v>
       </c>
       <c r="G155">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="H155">
-        <v>146.88908562520058</v>
+        <v>99.736641493057931</v>
       </c>
       <c r="I155">
-        <v>163.37745810186897</v>
+        <v>51.31334503335674</v>
       </c>
       <c r="J155">
-        <v>1.3874702811767519</v>
+        <v>1.1923532363190976</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -9956,31 +9952,31 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>0.36551811917717369</v>
+        <v>0.39602740673490261</v>
       </c>
       <c r="E156">
-        <v>49899</v>
+        <v>55768</v>
       </c>
       <c r="F156">
-        <v>117.34694082045732</v>
+        <v>113.76138645818391</v>
       </c>
       <c r="G156">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H156">
-        <v>124.19133166084158</v>
+        <v>115.90995878468948</v>
       </c>
       <c r="I156">
-        <v>66.135437898689887</v>
+        <v>29.96053869739811</v>
       </c>
       <c r="J156">
-        <v>1.0982508161057887</v>
+        <v>1.1121426689174863</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -10021,28 +10017,28 @@
         <v>9</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>0.39467669581076115</v>
+        <v>0.41803766509660101</v>
       </c>
       <c r="E157">
-        <v>51675</v>
+        <v>55938</v>
       </c>
       <c r="F157">
-        <v>122.35330430575713</v>
+        <v>119.71902820980371</v>
       </c>
       <c r="G157">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H157">
-        <v>145.48330367229772</v>
+        <v>146.88908562520058</v>
       </c>
       <c r="I157">
-        <v>604.19594341589368</v>
+        <v>163.37745810186897</v>
       </c>
       <c r="J157">
-        <v>1.3695851100175098</v>
+        <v>1.3874702811767519</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -10083,28 +10079,28 @@
         <v>9</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>0.37393400081100087</v>
+        <v>0.36551811917717369</v>
       </c>
       <c r="E158">
-        <v>50687</v>
+        <v>49899</v>
       </c>
       <c r="F158">
-        <v>118.1824728234064</v>
+        <v>117.34694082045732</v>
       </c>
       <c r="G158">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H158">
-        <v>137.33953969712522</v>
+        <v>124.19133166084158</v>
       </c>
       <c r="I158">
-        <v>18.411953421235268</v>
+        <v>66.135437898689887</v>
       </c>
       <c r="J158">
-        <v>1.2354482090196048</v>
+        <v>1.0982508161057887</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -10145,28 +10141,28 @@
         <v>9</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>0.3828355965450565</v>
+        <v>0.39467669581076115</v>
       </c>
       <c r="E159">
-        <v>53032</v>
+        <v>51675</v>
       </c>
       <c r="F159">
-        <v>115.64557248453764</v>
+        <v>122.35330430575713</v>
       </c>
       <c r="G159">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H159">
-        <v>128.44395363512749</v>
+        <v>145.48330367229772</v>
       </c>
       <c r="I159">
-        <v>71.71868271826996</v>
+        <v>604.19594341589368</v>
       </c>
       <c r="J159">
-        <v>1.1461553207096846</v>
+        <v>1.3695851100175098</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -10204,31 +10200,31 @@
         <v>0</v>
       </c>
       <c r="B160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>0.51502748613707916</v>
+        <v>0.37393400081100087</v>
       </c>
       <c r="E160">
-        <v>69740</v>
+        <v>50687</v>
       </c>
       <c r="F160">
-        <v>118.30501864066532</v>
+        <v>118.1824728234064</v>
       </c>
       <c r="G160">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H160">
-        <v>106.57246556837615</v>
+        <v>137.33953969712522</v>
       </c>
       <c r="I160">
-        <v>148.03285380089409</v>
+        <v>18.411953421235268</v>
       </c>
       <c r="J160">
-        <v>1.7634523956424337</v>
+        <v>1.2354482090196048</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -10266,31 +10262,31 @@
         <v>0</v>
       </c>
       <c r="B161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>0.47498937558927401</v>
+        <v>0.3828355965450565</v>
       </c>
       <c r="E161">
-        <v>62329</v>
+        <v>53032</v>
       </c>
       <c r="F161">
-        <v>122.08110189478413</v>
+        <v>115.64557248453764</v>
       </c>
       <c r="G161">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H161">
-        <v>118.96045925191298</v>
+        <v>128.44395363512749</v>
       </c>
       <c r="I161">
-        <v>330.90909479255367</v>
+        <v>71.71868271826996</v>
       </c>
       <c r="J161">
-        <v>1.5809739019348588</v>
+        <v>1.1461553207096846</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -10331,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>0.30724890684676481</v>
+        <v>0.51502748613707916</v>
       </c>
       <c r="E162">
-        <v>40532</v>
+        <v>69740</v>
       </c>
       <c r="F162">
-        <v>121.43587782492845</v>
+        <v>118.30501864066532</v>
       </c>
       <c r="G162">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H162">
-        <v>191.16224496536626</v>
+        <v>106.57246556837615</v>
       </c>
       <c r="I162">
-        <v>907.64690788348287</v>
+        <v>148.03285380089409</v>
       </c>
       <c r="J162">
-        <v>1.1780243840021114</v>
+        <v>1.7634523956424337</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -10393,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>0.35172523700800612</v>
+        <v>0.47498937558927401</v>
       </c>
       <c r="E163">
-        <v>47260</v>
+        <v>62329</v>
       </c>
       <c r="F163">
-        <v>119.22422767668219</v>
+        <v>122.08110189478413</v>
       </c>
       <c r="G163">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H163">
-        <v>131.9301722681756</v>
+        <v>118.96045925191298</v>
       </c>
       <c r="I163">
-        <v>96.715326166005738</v>
+        <v>330.90909479255367</v>
       </c>
       <c r="J163">
-        <v>1.0372413151390285</v>
+        <v>1.5809739019348588</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -10455,28 +10451,28 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>0.38186522953721014</v>
+        <v>0.30724890684676481</v>
       </c>
       <c r="E164">
-        <v>49976</v>
+        <v>40532</v>
       </c>
       <c r="F164">
-        <v>122.40617496398271</v>
+        <v>121.43587782492845</v>
       </c>
       <c r="G164">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H164">
-        <v>158.07435067515488</v>
+        <v>191.16224496536626</v>
       </c>
       <c r="I164">
-        <v>41.558987504909794</v>
+        <v>907.64690788348287</v>
       </c>
       <c r="J164">
-        <v>1.31615003732017</v>
+        <v>1.1780243840021114</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -10514,31 +10510,31 @@
         <v>0</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D165">
-        <v>0.54834568811224571</v>
+        <v>0.35172523700800612</v>
       </c>
       <c r="E165">
-        <v>60546</v>
+        <v>47260</v>
       </c>
       <c r="F165">
-        <v>145.08538962111453</v>
+        <v>119.22422767668219</v>
       </c>
       <c r="G165">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H165">
-        <v>101.17744683394984</v>
+        <v>131.9301722681756</v>
       </c>
       <c r="I165">
-        <v>619.78350736229322</v>
+        <v>96.715326166005738</v>
       </c>
       <c r="J165">
-        <v>1.791916077592199</v>
+        <v>1.0372413151390285</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -10576,31 +10572,31 @@
         <v>0</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D166">
-        <v>0.48432050463828563</v>
+        <v>0.38186522953721014</v>
       </c>
       <c r="E166">
-        <v>57924</v>
+        <v>49976</v>
       </c>
       <c r="F166">
-        <v>133.94577377252952</v>
+        <v>122.40617496398271</v>
       </c>
       <c r="G166">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H166">
-        <v>114.36020601604528</v>
+        <v>158.07435067515488</v>
       </c>
       <c r="I166">
-        <v>624.30298880259761</v>
+        <v>41.558987504909794</v>
       </c>
       <c r="J166">
-        <v>1.5765901080144296</v>
+        <v>1.31615003732017</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -10641,28 +10637,28 @@
         <v>11</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>0.49954187690764978</v>
+        <v>0.54834568811224571</v>
       </c>
       <c r="E167">
-        <v>59356</v>
+        <v>60546</v>
       </c>
       <c r="F167">
-        <v>134.82237684480086</v>
+        <v>145.08538962111453</v>
       </c>
       <c r="G167">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H167">
-        <v>102.54638290611048</v>
+        <v>101.17744683394984</v>
       </c>
       <c r="I167">
-        <v>11.198843474056307</v>
+        <v>619.78350736229322</v>
       </c>
       <c r="J167">
-        <v>1.5895502457052955</v>
+        <v>1.791916077592199</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -10703,28 +10699,28 @@
         <v>11</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>0.47076258299774676</v>
+        <v>0.48432050463828563</v>
       </c>
       <c r="E168">
-        <v>61905</v>
+        <v>57924</v>
       </c>
       <c r="F168">
-        <v>121.82345529440272</v>
+        <v>133.94577377252952</v>
       </c>
       <c r="G168">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H168">
-        <v>119.12671388920846</v>
+        <v>114.36020601604528</v>
       </c>
       <c r="I168">
-        <v>63.850708862486336</v>
+        <v>624.30298880259761</v>
       </c>
       <c r="J168">
-        <v>1.4681494345642134</v>
+        <v>1.5765901080144296</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -10765,28 +10761,28 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>0.47297023816657879</v>
+        <v>0.49954187690764978</v>
       </c>
       <c r="E169">
-        <v>56406</v>
+        <v>59356</v>
       </c>
       <c r="F169">
-        <v>134.32696876218841</v>
+        <v>134.82237684480086</v>
       </c>
       <c r="G169">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H169">
-        <v>119.94029698270103</v>
+        <v>102.54638290611048</v>
       </c>
       <c r="I169">
-        <v>181.92117932308236</v>
+        <v>11.198843474056307</v>
       </c>
       <c r="J169">
-        <v>1.5578303594184717</v>
+        <v>1.5895502457052955</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -10824,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>0.48153893153634725</v>
+        <v>0.47076258299774676</v>
       </c>
       <c r="E170">
-        <v>63138</v>
+        <v>61905</v>
       </c>
       <c r="F170">
-        <v>122.17864043840477</v>
+        <v>121.82345529440272</v>
       </c>
       <c r="G170">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H170">
-        <v>107.72643473888212</v>
+        <v>119.12671388920846</v>
       </c>
       <c r="I170">
-        <v>219.72486287890609</v>
+        <v>63.850708862486336</v>
       </c>
       <c r="J170">
-        <v>1.4550288856078746</v>
+        <v>1.4681494345642134</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -10886,31 +10882,31 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>0.45970689111015228</v>
+        <v>0.47297023816657879</v>
       </c>
       <c r="E171">
-        <v>53543</v>
+        <v>56406</v>
       </c>
       <c r="F171">
-        <v>137.54126589843676</v>
+        <v>134.32696876218841</v>
       </c>
       <c r="G171">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H171">
-        <v>124.56860843880467</v>
+        <v>119.94029698270103</v>
       </c>
       <c r="I171">
-        <v>73.244759687923121</v>
+        <v>181.92117932308236</v>
       </c>
       <c r="J171">
-        <v>1.4849541619309801</v>
+        <v>1.5578303594184717</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -10951,28 +10947,28 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>0.55219026409463545</v>
+        <v>0.48153893153634725</v>
       </c>
       <c r="E172">
-        <v>60817</v>
+        <v>63138</v>
       </c>
       <c r="F172">
-        <v>145.45158426097967</v>
+        <v>122.17864043840477</v>
       </c>
       <c r="G172">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H172">
-        <v>94.684211398602088</v>
+        <v>107.72643473888212</v>
       </c>
       <c r="I172">
-        <v>239.58402172439796</v>
+        <v>219.72486287890609</v>
       </c>
       <c r="J172">
-        <v>1.7095454260481131</v>
+        <v>1.4550288856078746</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -11013,28 +11009,28 @@
         <v>12</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>0.54033605597903378</v>
+        <v>0.45970689111015228</v>
       </c>
       <c r="E173">
-        <v>64831</v>
+        <v>53543</v>
       </c>
       <c r="F173">
-        <v>133.51680523206491</v>
+        <v>137.54126589843676</v>
       </c>
       <c r="G173">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H173">
-        <v>89.208642266496028</v>
+        <v>124.56860843880467</v>
       </c>
       <c r="I173">
-        <v>35.793816391798146</v>
+        <v>73.244759687923121</v>
       </c>
       <c r="J173">
-        <v>1.7812310349426932</v>
+        <v>1.4849541619309801</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -11075,28 +11071,28 @@
         <v>12</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>0.5212149881346182</v>
+        <v>0.55219026409463545</v>
       </c>
       <c r="E174">
-        <v>60046</v>
+        <v>60817</v>
       </c>
       <c r="F174">
-        <v>139.05529094360989</v>
+        <v>145.45158426097967</v>
       </c>
       <c r="G174">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H174">
-        <v>103.99411879900003</v>
+        <v>94.684211398602088</v>
       </c>
       <c r="I174">
-        <v>198.85982175905528</v>
+        <v>239.58402172439796</v>
       </c>
       <c r="J174">
-        <v>1.700357996977758</v>
+        <v>1.7095454260481131</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -11134,31 +11130,31 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>0.43175613893682985</v>
+        <v>0.54033605597903378</v>
       </c>
       <c r="E175">
-        <v>66368</v>
+        <v>64831</v>
       </c>
       <c r="F175">
-        <v>104.21602278206365</v>
+        <v>133.51680523206491</v>
       </c>
       <c r="G175">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H175">
-        <v>124.12117595322722</v>
+        <v>89.208642266496028</v>
       </c>
       <c r="I175">
-        <v>93.410441600872815</v>
+        <v>35.793816391798146</v>
       </c>
       <c r="J175">
-        <v>1.4809649903549402</v>
+        <v>1.7812310349426932</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -11196,31 +11192,31 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>0.39494505269507968</v>
+        <v>0.5212149881346182</v>
       </c>
       <c r="E176">
-        <v>62274</v>
+        <v>60046</v>
       </c>
       <c r="F176">
-        <v>101.59787391206604</v>
+        <v>139.05529094360989</v>
       </c>
       <c r="G176">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H176">
-        <v>142.6818768580076</v>
+        <v>103.99411879900003</v>
       </c>
       <c r="I176">
-        <v>290.19260014496837</v>
+        <v>198.85982175905528</v>
       </c>
       <c r="J176">
-        <v>1.4309488990435331</v>
+        <v>1.700357996977758</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11261,28 +11257,28 @@
         <v>13</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>0.40598894661776691</v>
+        <v>0.43175613893682985</v>
       </c>
       <c r="E177">
-        <v>66632</v>
+        <v>66368</v>
       </c>
       <c r="F177">
-        <v>97.608146236042742</v>
+        <v>104.21602278206365</v>
       </c>
       <c r="G177">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H177">
-        <v>133.04017111592404</v>
+        <v>124.12117595322722</v>
       </c>
       <c r="I177">
-        <v>394.44438259137229</v>
+        <v>93.410441600872815</v>
       </c>
       <c r="J177">
-        <v>1.3379614980690315</v>
+        <v>1.4809649903549402</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -11323,28 +11319,28 @@
         <v>13</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>0.39686993124470654</v>
+        <v>0.39494505269507968</v>
       </c>
       <c r="E178">
-        <v>64198</v>
+        <v>62274</v>
       </c>
       <c r="F178">
-        <v>99.033334371787276</v>
+        <v>101.59787391206604</v>
       </c>
       <c r="G178">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H178">
-        <v>137.13862180426639</v>
+        <v>142.6818768580076</v>
       </c>
       <c r="I178">
-        <v>217.19467104981601</v>
+        <v>290.19260014496837</v>
       </c>
       <c r="J178">
-        <v>1.3577738479678851</v>
+        <v>1.4309488990435331</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -11385,28 +11381,28 @@
         <v>13</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>0.40859742047797115</v>
+        <v>0.40598894661776691</v>
       </c>
       <c r="E179">
-        <v>68738</v>
+        <v>66632</v>
       </c>
       <c r="F179">
-        <v>95.225537548372074</v>
+        <v>97.608146236042742</v>
       </c>
       <c r="G179">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H179">
-        <v>133.36944339654059</v>
+        <v>133.04017111592404</v>
       </c>
       <c r="I179">
-        <v>353.6690255524756</v>
+        <v>394.44438259137229</v>
       </c>
       <c r="J179">
-        <v>1.5563448053601281</v>
+        <v>1.3379614980690315</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -11444,31 +11440,31 @@
         <v>0</v>
       </c>
       <c r="B180">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>0.36185943917094138</v>
+        <v>0.39686993124470654</v>
       </c>
       <c r="E180">
-        <v>59787</v>
+        <v>64198</v>
       </c>
       <c r="F180">
-        <v>96.958937561677288</v>
+        <v>99.033334371787276</v>
       </c>
       <c r="G180">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H180">
-        <v>137.32050248701003</v>
+        <v>137.13862180426639</v>
       </c>
       <c r="I180">
-        <v>229.07208768675912</v>
+        <v>217.19467104981601</v>
       </c>
       <c r="J180">
-        <v>1.294178396705626</v>
+        <v>1.3577738479678851</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -11506,31 +11502,31 @@
         <v>0</v>
       </c>
       <c r="B181">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>0.42877955608690094</v>
+        <v>0.40859742047797115</v>
       </c>
       <c r="E181">
-        <v>63115</v>
+        <v>68738</v>
       </c>
       <c r="F181">
-        <v>108.83189416145132</v>
+        <v>95.225537548372074</v>
       </c>
       <c r="G181">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H181">
-        <v>140.11011587946311</v>
+        <v>133.36944339654059</v>
       </c>
       <c r="I181">
-        <v>35.637851308311568</v>
+        <v>353.6690255524756</v>
       </c>
       <c r="J181">
-        <v>1.4899575846723467</v>
+        <v>1.5563448053601281</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -11571,28 +11567,28 @@
         <v>14</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>0.36695347581779247</v>
+        <v>0.36185943917094138</v>
       </c>
       <c r="E182">
-        <v>58250</v>
+        <v>59787</v>
       </c>
       <c r="F182">
-        <v>100.9182660944206</v>
+        <v>96.958937561677288</v>
       </c>
       <c r="G182">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H182">
-        <v>141.37802728576554</v>
+        <v>137.32050248701003</v>
       </c>
       <c r="I182">
-        <v>634.80830897856379</v>
+        <v>229.07208768675912</v>
       </c>
       <c r="J182">
-        <v>1.3148210096620254</v>
+        <v>1.294178396705626</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -11633,28 +11629,28 @@
         <v>14</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>0.36877067452898027</v>
+        <v>0.42877955608690094</v>
       </c>
       <c r="E183">
-        <v>60039</v>
+        <v>63115</v>
       </c>
       <c r="F183">
-        <v>98.396042572327985</v>
+        <v>108.83189416145132</v>
       </c>
       <c r="G183">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H183">
-        <v>146.25210945025927</v>
+        <v>140.11011587946311</v>
       </c>
       <c r="I183">
-        <v>99.383880827239906</v>
+        <v>35.637851308311568</v>
       </c>
       <c r="J183">
-        <v>1.3194006846699853</v>
+        <v>1.4899575846723467</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -11695,28 +11691,28 @@
         <v>14</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>0.36470743044569093</v>
+        <v>0.36695347581779247</v>
       </c>
       <c r="E184">
-        <v>60753</v>
+        <v>58250</v>
       </c>
       <c r="F184">
-        <v>96.168222145408464</v>
+        <v>100.9182660944206</v>
       </c>
       <c r="G184">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H184">
-        <v>162.26741420217559</v>
+        <v>141.37802728576554</v>
       </c>
       <c r="I184">
-        <v>74.299719757785638</v>
+        <v>634.80830897856379</v>
       </c>
       <c r="J184">
-        <v>1.4430026117038985</v>
+        <v>1.3148210096620254</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -11754,31 +11750,31 @@
         <v>0</v>
       </c>
       <c r="B185">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>0.41882425851351135</v>
+        <v>0.36877067452898027</v>
       </c>
       <c r="E185">
-        <v>59484</v>
+        <v>60039</v>
       </c>
       <c r="F185">
-        <v>112.79409589133212</v>
+        <v>98.396042572327985</v>
       </c>
       <c r="G185">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H185">
-        <v>130.08817288527032</v>
+        <v>146.25210945025927</v>
       </c>
       <c r="I185">
-        <v>197.80860132750161</v>
+        <v>99.383880827239906</v>
       </c>
       <c r="J185">
-        <v>1.3007844187373381</v>
+        <v>1.3194006846699853</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -11816,31 +11812,31 @@
         <v>0</v>
       </c>
       <c r="B186">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>0.44437459300142224</v>
+        <v>0.36470743044569093</v>
       </c>
       <c r="E186">
-        <v>65176</v>
+        <v>60753</v>
       </c>
       <c r="F186">
-        <v>109.22353320240579</v>
+        <v>96.168222145408464</v>
       </c>
       <c r="G186">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H186">
-        <v>132.89669982746915</v>
+        <v>162.26741420217559</v>
       </c>
       <c r="I186">
-        <v>205.17970322868098</v>
+        <v>74.299719757785638</v>
       </c>
       <c r="J186">
-        <v>1.5660910191179933</v>
+        <v>1.4430026117038985</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -11881,28 +11877,28 @@
         <v>15</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>0.42724844241893989</v>
+        <v>0.41882425851351135</v>
       </c>
       <c r="E187">
-        <v>65536</v>
+        <v>59484</v>
       </c>
       <c r="F187">
-        <v>104.43721008300781</v>
+        <v>112.79409589133212</v>
       </c>
       <c r="G187">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H187">
-        <v>123.12992954188951</v>
+        <v>130.08817288527032</v>
       </c>
       <c r="I187">
-        <v>196.44656775100555</v>
+        <v>197.80860132750161</v>
       </c>
       <c r="J187">
-        <v>1.4056692363961336</v>
+        <v>1.3007844187373381</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -11943,28 +11939,28 @@
         <v>15</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>0.40425889054684627</v>
+        <v>0.44437459300142224</v>
       </c>
       <c r="E188">
-        <v>61872</v>
+        <v>65176</v>
       </c>
       <c r="F188">
-        <v>104.66949508663046</v>
+        <v>109.22353320240579</v>
       </c>
       <c r="G188">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H188">
-        <v>147.36625283987581</v>
+        <v>132.89669982746915</v>
       </c>
       <c r="I188">
-        <v>282.18391964809882</v>
+        <v>205.17970322868098</v>
       </c>
       <c r="J188">
-        <v>1.4186774097419454</v>
+        <v>1.5660910191179933</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12005,28 +12001,28 @@
         <v>15</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>0.40541246933777586</v>
+        <v>0.42724844241893989</v>
       </c>
       <c r="E189">
-        <v>62708</v>
+        <v>65536</v>
       </c>
       <c r="F189">
-        <v>103.56877910314473</v>
+        <v>104.43721008300781</v>
       </c>
       <c r="G189">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H189">
-        <v>142.96179032841508</v>
+        <v>123.12992954188951</v>
       </c>
       <c r="I189">
-        <v>304.216443471221</v>
+        <v>196.44656775100555</v>
       </c>
       <c r="J189">
-        <v>1.327364904478842</v>
+        <v>1.4056692363961336</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -12064,31 +12060,31 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>0.42216657827556453</v>
+        <v>0.40425889054684627</v>
       </c>
       <c r="E190">
-        <v>53485</v>
+        <v>61872</v>
       </c>
       <c r="F190">
-        <v>126.44642423109283</v>
+        <v>104.66949508663046</v>
       </c>
       <c r="G190">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H190">
-        <v>128.97572157279342</v>
+        <v>147.36625283987581</v>
       </c>
       <c r="I190">
-        <v>454.12705679032939</v>
+        <v>282.18391964809882</v>
       </c>
       <c r="J190">
-        <v>1.2611366967812303</v>
+        <v>1.4186774097419454</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -12126,31 +12122,31 @@
         <v>0</v>
       </c>
       <c r="B191">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D191">
-        <v>0.40951915989500937</v>
+        <v>0.40541246933777586</v>
       </c>
       <c r="E191">
-        <v>52634</v>
+        <v>62708</v>
       </c>
       <c r="F191">
-        <v>124.64146749249535</v>
+        <v>103.56877910314473</v>
       </c>
       <c r="G191">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H191">
-        <v>130.36101175982984</v>
+        <v>142.96179032841508</v>
       </c>
       <c r="I191">
-        <v>854.22923663540917</v>
+        <v>304.216443471221</v>
       </c>
       <c r="J191">
-        <v>1.4341976566993029</v>
+        <v>1.327364904478842</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12191,28 +12187,28 @@
         <v>16</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>0.42571320882672548</v>
+        <v>0.42216657827556453</v>
       </c>
       <c r="E192">
-        <v>52939</v>
+        <v>53485</v>
       </c>
       <c r="F192">
-        <v>128.82379720055158</v>
+        <v>126.44642423109283</v>
       </c>
       <c r="G192">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H192">
-        <v>121.78296340312576</v>
+        <v>128.97572157279342</v>
       </c>
       <c r="I192">
-        <v>298.2663885523757</v>
+        <v>454.12705679032939</v>
       </c>
       <c r="J192">
-        <v>1.2928757780789502</v>
+        <v>1.2611366967812303</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -12253,28 +12249,28 @@
         <v>16</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>0.45279865206066128</v>
+        <v>0.40951915989500937</v>
       </c>
       <c r="E193">
-        <v>57689</v>
+        <v>52634</v>
       </c>
       <c r="F193">
-        <v>125.73807831649015</v>
+        <v>124.64146749249535</v>
       </c>
       <c r="G193">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H193">
-        <v>138.94157462030134</v>
+        <v>130.36101175982984</v>
       </c>
       <c r="I193">
-        <v>137.52113865774868</v>
+        <v>854.22923663540917</v>
       </c>
       <c r="J193">
-        <v>1.6330615987851409</v>
+        <v>1.4341976566993029</v>
       </c>
       <c r="K193">
         <v>0</v>
@@ -12315,28 +12311,28 @@
         <v>16</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>0.45132527975534142</v>
+        <v>0.42571320882672548</v>
       </c>
       <c r="E194">
-        <v>60566</v>
+        <v>52939</v>
       </c>
       <c r="F194">
-        <v>119.37557375425156</v>
+        <v>128.82379720055158</v>
       </c>
       <c r="G194">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H194">
-        <v>137.07519249961021</v>
+        <v>121.78296340312576</v>
       </c>
       <c r="I194">
-        <v>319.48278217095566</v>
+        <v>298.2663885523757</v>
       </c>
       <c r="J194">
-        <v>1.4760319126411441</v>
+        <v>1.2928757780789502</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -12374,31 +12370,31 @@
         <v>0</v>
       </c>
       <c r="B195">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>0.44227262013199736</v>
+        <v>0.45279865206066128</v>
       </c>
       <c r="E195">
-        <v>57680</v>
+        <v>57689</v>
       </c>
       <c r="F195">
-        <v>122.83425797503467</v>
+        <v>125.73807831649015</v>
       </c>
       <c r="G195">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H195">
-        <v>137.12627732541984</v>
+        <v>138.94157462030134</v>
       </c>
       <c r="I195">
-        <v>246.01189038246716</v>
+        <v>137.52113865774868</v>
       </c>
       <c r="J195">
-        <v>1.5003648115224233</v>
+        <v>1.6330615987851409</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -12436,31 +12432,31 @@
         <v>0</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>0.44027601744650591</v>
+        <v>0.45132527975534142</v>
       </c>
       <c r="E196">
-        <v>62659</v>
+        <v>60566</v>
       </c>
       <c r="F196">
-        <v>112.56315932268309</v>
+        <v>119.37557375425156</v>
       </c>
       <c r="G196">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H196">
-        <v>137.11687042498204</v>
+        <v>137.07519249961021</v>
       </c>
       <c r="I196">
-        <v>341.38458554575021</v>
+        <v>319.48278217095566</v>
       </c>
       <c r="J196">
-        <v>1.48272487317143</v>
+        <v>1.4760319126411441</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -12501,28 +12497,28 @@
         <v>17</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>0.41722541578774947</v>
+        <v>0.44227262013199736</v>
       </c>
       <c r="E197">
-        <v>53647</v>
+        <v>57680</v>
       </c>
       <c r="F197">
-        <v>124.58909165470577</v>
+        <v>122.83425797503467</v>
       </c>
       <c r="G197">
         <v>79</v>
       </c>
       <c r="H197">
-        <v>118.32503359025804</v>
+        <v>137.12627732541984</v>
       </c>
       <c r="I197">
-        <v>67.365748324518023</v>
+        <v>246.01189038246716</v>
       </c>
       <c r="J197">
-        <v>1.2421058585316216</v>
+        <v>1.5003648115224233</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -12563,28 +12559,28 @@
         <v>17</v>
       </c>
       <c r="C198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>0.40208088634801925</v>
+        <v>0.44027601744650591</v>
       </c>
       <c r="E198">
-        <v>56483</v>
+        <v>62659</v>
       </c>
       <c r="F198">
-        <v>114.03820618593205</v>
+        <v>112.56315932268309</v>
       </c>
       <c r="G198">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H198">
-        <v>123.37454266655406</v>
+        <v>137.11687042498204</v>
       </c>
       <c r="I198">
-        <v>22.588730543184948</v>
+        <v>341.38458554575021</v>
       </c>
       <c r="J198">
-        <v>1.3950022405328901</v>
+        <v>1.48272487317143</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -12625,28 +12621,28 @@
         <v>17</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>0.40465777412228132</v>
+        <v>0.41722541578774947</v>
       </c>
       <c r="E199">
-        <v>53398</v>
+        <v>53647</v>
       </c>
       <c r="F199">
-        <v>121.39969661785085</v>
+        <v>124.58909165470577</v>
       </c>
       <c r="G199">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H199">
-        <v>120.3743417478868</v>
+        <v>118.32503359025804</v>
       </c>
       <c r="I199">
-        <v>39.846326208130506</v>
+        <v>67.365748324518023</v>
       </c>
       <c r="J199">
-        <v>1.2521752805486137</v>
+        <v>1.2421058585316216</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -12684,31 +12680,31 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200">
-        <v>0.39724765339102225</v>
+        <v>0.40208088634801925</v>
       </c>
       <c r="E200">
-        <v>51504</v>
+        <v>56483</v>
       </c>
       <c r="F200">
-        <v>123.55919928549238</v>
+        <v>114.03820618593205</v>
       </c>
       <c r="G200">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H200">
-        <v>141.50779291080278</v>
+        <v>123.37454266655406</v>
       </c>
       <c r="I200">
-        <v>402.47483302638187</v>
+        <v>22.588730543184948</v>
       </c>
       <c r="J200">
-        <v>1.1978862280224531</v>
+        <v>1.3950022405328901</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -12746,31 +12742,31 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D201">
-        <v>0.3804924832606229</v>
+        <v>0.40465777412228132</v>
       </c>
       <c r="E201">
-        <v>50033</v>
+        <v>53398</v>
       </c>
       <c r="F201">
-        <v>121.82719405192573</v>
+        <v>121.39969661785085</v>
       </c>
       <c r="G201">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H201">
-        <v>129.71966737610029</v>
+        <v>120.3743417478868</v>
       </c>
       <c r="I201">
-        <v>656.6190011465867</v>
+        <v>39.846326208130506</v>
       </c>
       <c r="J201">
-        <v>1.1807365809776316</v>
+        <v>1.2521752805486137</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -12811,28 +12807,28 @@
         <v>18</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>0.41991766144110454</v>
+        <v>0.39724765339102225</v>
       </c>
       <c r="E202">
-        <v>56358</v>
+        <v>51504</v>
       </c>
       <c r="F202">
-        <v>119.36122644522517</v>
+        <v>123.55919928549238</v>
       </c>
       <c r="G202">
         <v>73</v>
       </c>
       <c r="H202">
-        <v>147.18087551876519</v>
+        <v>141.50779291080278</v>
       </c>
       <c r="I202">
-        <v>201.93573952926971</v>
+        <v>402.47483302638187</v>
       </c>
       <c r="J202">
-        <v>1.4903698818721816</v>
+        <v>1.1978862280224531</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -12873,28 +12869,28 @@
         <v>18</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>0.39662098794285439</v>
+        <v>0.3804924832606229</v>
       </c>
       <c r="E203">
-        <v>53789</v>
+        <v>50033</v>
       </c>
       <c r="F203">
-        <v>118.12366840803882</v>
+        <v>121.82719405192573</v>
       </c>
       <c r="G203">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H203">
-        <v>145.5203139910904</v>
+        <v>129.71966737610029</v>
       </c>
       <c r="I203">
-        <v>160.28744228241487</v>
+        <v>656.6190011465867</v>
       </c>
       <c r="J203">
-        <v>1.2536565437884664</v>
+        <v>1.1807365809776316</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -12935,28 +12931,28 @@
         <v>18</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>0.38916417473672438</v>
+        <v>0.41991766144110454</v>
       </c>
       <c r="E204">
-        <v>51052</v>
+        <v>56358</v>
       </c>
       <c r="F204">
-        <v>122.11662618506621</v>
+        <v>119.36122644522517</v>
       </c>
       <c r="G204">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H204">
-        <v>134.83814436909194</v>
+        <v>147.18087551876519</v>
       </c>
       <c r="I204">
-        <v>104.81178746674911</v>
+        <v>201.93573952926971</v>
       </c>
       <c r="J204">
-        <v>1.2845544218040434</v>
+        <v>1.4903698818721816</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -12994,31 +12990,31 @@
         <v>0</v>
       </c>
       <c r="B205">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>0.49865509442367006</v>
+        <v>0.39662098794285439</v>
       </c>
       <c r="E205">
-        <v>62709</v>
+        <v>53789</v>
       </c>
       <c r="F205">
-        <v>127.38699389242373</v>
+        <v>118.12366840803882</v>
       </c>
       <c r="G205">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H205">
-        <v>117.06726192095196</v>
+        <v>145.5203139910904</v>
       </c>
       <c r="I205">
-        <v>694.69128729311751</v>
+        <v>160.28744228241487</v>
       </c>
       <c r="J205">
-        <v>1.7126837423030838</v>
+        <v>1.2536565437884664</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -13056,31 +13052,31 @@
         <v>0</v>
       </c>
       <c r="B206">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D206">
-        <v>0.51340448567365005</v>
+        <v>0.38916417473672438</v>
       </c>
       <c r="E206">
-        <v>69255</v>
+        <v>51052</v>
       </c>
       <c r="F206">
-        <v>118.75809688831131</v>
+        <v>122.11662618506621</v>
       </c>
       <c r="G206">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H206">
-        <v>117.09268983067795</v>
+        <v>134.83814436909194</v>
       </c>
       <c r="I206">
-        <v>303.17303556696243</v>
+        <v>104.81178746674911</v>
       </c>
       <c r="J206">
-        <v>1.8134510355531361</v>
+        <v>1.2845544218040434</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -13121,28 +13117,28 @@
         <v>19</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>0.49733228662288059</v>
+        <v>0.49865509442367006</v>
       </c>
       <c r="E207">
-        <v>62371</v>
+        <v>62709</v>
       </c>
       <c r="F207">
-        <v>127.73757034519248</v>
+        <v>127.38699389242373</v>
       </c>
       <c r="G207">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H207">
-        <v>104.77738036587834</v>
+        <v>117.06726192095196</v>
       </c>
       <c r="I207">
-        <v>33.511151553720346</v>
+        <v>694.69128729311751</v>
       </c>
       <c r="J207">
-        <v>1.5532617649671248</v>
+        <v>1.7126837423030838</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -13183,28 +13179,28 @@
         <v>19</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>0.4501941108554261</v>
+        <v>0.51340448567365005</v>
       </c>
       <c r="E208">
-        <v>54560</v>
+        <v>69255</v>
       </c>
       <c r="F208">
-        <v>132.18438416422288</v>
+        <v>118.75809688831131</v>
       </c>
       <c r="G208">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H208">
-        <v>116.98624477115979</v>
+        <v>117.09268983067795</v>
       </c>
       <c r="I208">
-        <v>27.408234736913393</v>
+        <v>303.17303556696243</v>
       </c>
       <c r="J208">
-        <v>1.3617822458040802</v>
+        <v>1.8134510355531361</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -13245,28 +13241,28 @@
         <v>19</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>0.48293027989516918</v>
+        <v>0.49733228662288059</v>
       </c>
       <c r="E209">
-        <v>64152</v>
+        <v>62371</v>
       </c>
       <c r="F209">
-        <v>120.59489961341814</v>
+        <v>127.73757034519248</v>
       </c>
       <c r="G209">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H209">
-        <v>100.59202083411671</v>
+        <v>104.77738036587834</v>
       </c>
       <c r="I209">
-        <v>47.719900730815006</v>
+        <v>33.511151553720346</v>
       </c>
       <c r="J209">
-        <v>1.4120455141166439</v>
+        <v>1.5532617649671248</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -13304,31 +13300,31 @@
         <v>0</v>
       </c>
       <c r="B210">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>0.44848515379053006</v>
+        <v>0.4501941108554261</v>
       </c>
       <c r="E210">
-        <v>56491</v>
+        <v>54560</v>
       </c>
       <c r="F210">
-        <v>127.18137402418084</v>
+        <v>132.18438416422288</v>
       </c>
       <c r="G210">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H210">
-        <v>113.21242403481071</v>
+        <v>116.98624477115979</v>
       </c>
       <c r="I210">
-        <v>1112.0261133783722</v>
+        <v>27.408234736913393</v>
       </c>
       <c r="J210">
-        <v>1.3687289550714759</v>
+        <v>1.3617822458040802</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -13366,31 +13362,31 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D211">
-        <v>0.46944483146763188</v>
+        <v>0.48293027989516918</v>
       </c>
       <c r="E211">
-        <v>59668</v>
+        <v>64152</v>
       </c>
       <c r="F211">
-        <v>126.03692096266005</v>
+        <v>120.59489961341814</v>
       </c>
       <c r="G211">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H211">
-        <v>124.2688218291684</v>
+        <v>100.59202083411671</v>
       </c>
       <c r="I211">
-        <v>256.32157938372126</v>
+        <v>47.719900730815006</v>
       </c>
       <c r="J211">
-        <v>1.4493057267168521</v>
+        <v>1.4120455141166439</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -13431,28 +13427,28 @@
         <v>20</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>0.46295233022915766</v>
+        <v>0.44848515379053006</v>
       </c>
       <c r="E212">
-        <v>55748</v>
+        <v>56491</v>
       </c>
       <c r="F212">
-        <v>133.0337052450312</v>
+        <v>127.18137402418084</v>
       </c>
       <c r="G212">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H212">
-        <v>124.66599788961277</v>
+        <v>113.21242403481071</v>
       </c>
       <c r="I212">
-        <v>708.67220046750208</v>
+        <v>1112.0261133783722</v>
       </c>
       <c r="J212">
-        <v>1.4022560324002025</v>
+        <v>1.3687289550714759</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -13493,28 +13489,28 @@
         <v>20</v>
       </c>
       <c r="C213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>0.41331947790322321</v>
+        <v>0.46944483146763188</v>
       </c>
       <c r="E213">
-        <v>52571</v>
+        <v>59668</v>
       </c>
       <c r="F213">
-        <v>125.94888817028399</v>
+        <v>126.03692096266005</v>
       </c>
       <c r="G213">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H213">
-        <v>116.70263196438815</v>
+        <v>124.2688218291684</v>
       </c>
       <c r="I213">
-        <v>12.218319713454786</v>
+        <v>256.32157938372126</v>
       </c>
       <c r="J213">
-        <v>1.2480298315700957</v>
+        <v>1.4493057267168521</v>
       </c>
       <c r="K213">
         <v>0</v>
@@ -13555,28 +13551,28 @@
         <v>20</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D214">
-        <v>0.42495582941815685</v>
+        <v>0.46295233022915766</v>
       </c>
       <c r="E214">
-        <v>53375</v>
+        <v>55748</v>
       </c>
       <c r="F214">
-        <v>127.54416861826698</v>
+        <v>133.0337052450312</v>
       </c>
       <c r="G214">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H214">
-        <v>126.40990050808317</v>
+        <v>124.66599788961277</v>
       </c>
       <c r="I214">
-        <v>38.937257066894105</v>
+        <v>708.67220046750208</v>
       </c>
       <c r="J214">
-        <v>1.3302653356508478</v>
+        <v>1.4022560324002025</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -13614,31 +13610,31 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>0.44107247371238634</v>
+        <v>0.41331947790322321</v>
       </c>
       <c r="E215">
-        <v>56115</v>
+        <v>52571</v>
       </c>
       <c r="F215">
-        <v>125.91738394368707</v>
+        <v>125.94888817028399</v>
       </c>
       <c r="G215">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H215">
-        <v>129.87048862895335</v>
+        <v>116.70263196438815</v>
       </c>
       <c r="I215">
-        <v>90.701262441159386</v>
+        <v>12.218319713454786</v>
       </c>
       <c r="J215">
-        <v>1.4170029941985458</v>
+        <v>1.2480298315700957</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -13676,31 +13672,31 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D216">
-        <v>0.43202449582114832</v>
+        <v>0.42495582941815685</v>
       </c>
       <c r="E216">
-        <v>55074</v>
+        <v>53375</v>
       </c>
       <c r="F216">
-        <v>125.66561353814868</v>
+        <v>127.54416861826698</v>
       </c>
       <c r="G216">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H216">
-        <v>158.78677567812102</v>
+        <v>126.40990050808317</v>
       </c>
       <c r="I216">
-        <v>241.01529231498975</v>
+        <v>38.937257066894105</v>
       </c>
       <c r="J216">
-        <v>1.3263833785798103</v>
+        <v>1.3302653356508478</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -13741,28 +13737,28 @@
         <v>21</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>0.42680898383191906</v>
+        <v>0.44107247371238634</v>
       </c>
       <c r="E217">
-        <v>50339</v>
+        <v>56115</v>
       </c>
       <c r="F217">
-        <v>135.82623810564374</v>
+        <v>125.91738394368707</v>
       </c>
       <c r="G217">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H217">
-        <v>162.7399234414587</v>
+        <v>129.87048862895335</v>
       </c>
       <c r="I217">
-        <v>370.98200157054197</v>
+        <v>90.701262441159386</v>
       </c>
       <c r="J217">
-        <v>1.3309485900709426</v>
+        <v>1.4170029941985458</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -13803,28 +13799,28 @@
         <v>21</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>0.39730308509915785</v>
+        <v>0.43202449582114832</v>
       </c>
       <c r="E218">
-        <v>50984</v>
+        <v>55074</v>
       </c>
       <c r="F218">
-        <v>124.83683116271771</v>
+        <v>125.66561353814868</v>
       </c>
       <c r="G218">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H218">
-        <v>189.88926550114931</v>
+        <v>158.78677567812102</v>
       </c>
       <c r="I218">
-        <v>286.84144160203027</v>
+        <v>241.01529231498975</v>
       </c>
       <c r="J218">
-        <v>1.4775298793164082</v>
+        <v>1.3263833785798103</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -13865,28 +13861,28 @@
         <v>21</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>0.44653749081132044</v>
+        <v>0.42680898383191906</v>
       </c>
       <c r="E219">
-        <v>55246</v>
+        <v>50339</v>
       </c>
       <c r="F219">
-        <v>129.48271368062845</v>
+        <v>135.82623810564374</v>
       </c>
       <c r="G219">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H219">
-        <v>156.88883611574749</v>
+        <v>162.7399234414587</v>
       </c>
       <c r="I219">
-        <v>40.041564613633092</v>
+        <v>370.98200157054197</v>
       </c>
       <c r="J219">
-        <v>1.4807344273285277</v>
+        <v>1.3309485900709426</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -13924,31 +13920,31 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>0.39967397666075394</v>
+        <v>0.39730308509915785</v>
       </c>
       <c r="E220">
-        <v>57098</v>
+        <v>50984</v>
       </c>
       <c r="F220">
-        <v>112.13461066937546</v>
+        <v>124.83683116271771</v>
       </c>
       <c r="G220">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H220">
-        <v>148.81096521958651</v>
+        <v>189.88926550114931</v>
       </c>
       <c r="I220">
-        <v>337.63482413498093</v>
+        <v>286.84144160203027</v>
       </c>
       <c r="J220">
-        <v>1.3159403190392271</v>
+        <v>1.4775298793164082</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -13986,31 +13982,31 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>0.39388960300909281</v>
+        <v>0.44653749081132044</v>
       </c>
       <c r="E221">
-        <v>52031</v>
+        <v>55246</v>
       </c>
       <c r="F221">
-        <v>121.27381753185601</v>
+        <v>129.48271368062845</v>
       </c>
       <c r="G221">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H221">
-        <v>178.64308951690612</v>
+        <v>156.88883611574749</v>
       </c>
       <c r="I221">
-        <v>492.96450269456642</v>
+        <v>40.041564613633092</v>
       </c>
       <c r="J221">
-        <v>1.5570163725057038</v>
+        <v>1.4807344273285277</v>
       </c>
       <c r="K221">
         <v>0</v>
@@ -14051,28 +14047,28 @@
         <v>22</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>0.42524135265353086</v>
+        <v>0.39967397666075394</v>
       </c>
       <c r="E222">
-        <v>52107</v>
+        <v>57098</v>
       </c>
       <c r="F222">
-        <v>130.73567850768612</v>
+        <v>112.13461066937546</v>
       </c>
       <c r="G222">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H222">
-        <v>152.62722104915824</v>
+        <v>148.81096521958651</v>
       </c>
       <c r="I222">
-        <v>257.2302360744373</v>
+        <v>337.63482413498093</v>
       </c>
       <c r="J222">
-        <v>1.4899150238168473</v>
+        <v>1.3159403190392271</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14113,28 +14109,28 @@
         <v>22</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>0.42405980831615447</v>
+        <v>0.39388960300909281</v>
       </c>
       <c r="E223">
-        <v>54833</v>
+        <v>52031</v>
       </c>
       <c r="F223">
-        <v>123.89101453504277</v>
+        <v>121.27381753185601</v>
       </c>
       <c r="G223">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H223">
-        <v>145.69099963126516</v>
+        <v>178.64308951690612</v>
       </c>
       <c r="I223">
-        <v>27.897449197361542</v>
+        <v>492.96450269456642</v>
       </c>
       <c r="J223">
-        <v>1.5033252804475434</v>
+        <v>1.5570163725057038</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -14175,28 +14171,28 @@
         <v>22</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>0.48295656001805776</v>
+        <v>0.42524135265353086</v>
       </c>
       <c r="E224">
-        <v>63617</v>
+        <v>52107</v>
       </c>
       <c r="F224">
-        <v>121.61568448685099</v>
+        <v>130.73567850768612</v>
       </c>
       <c r="G224">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H224">
-        <v>118.08386775672585</v>
+        <v>152.62722104915824</v>
       </c>
       <c r="I224">
-        <v>235.05928329584168</v>
+        <v>257.2302360744373</v>
       </c>
       <c r="J224">
-        <v>1.5710122319674664</v>
+        <v>1.4899150238168473</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -14234,31 +14230,31 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>0.43364131639819742</v>
+        <v>0.42405980831615447</v>
       </c>
       <c r="E225">
-        <v>54151</v>
+        <v>54833</v>
       </c>
       <c r="F225">
-        <v>128.28588576388248</v>
+        <v>123.89101453504277</v>
       </c>
       <c r="G225">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H225">
-        <v>124.37087499931191</v>
+        <v>145.69099963126516</v>
       </c>
       <c r="I225">
-        <v>3.8265199286629059</v>
+        <v>27.897449197361542</v>
       </c>
       <c r="J225">
-        <v>1.4288423872949758</v>
+        <v>1.5033252804475434</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -14296,31 +14292,31 @@
         <v>0</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>0.47183725899691581</v>
+        <v>0.48295656001805776</v>
       </c>
       <c r="E226">
-        <v>61544</v>
+        <v>63617</v>
       </c>
       <c r="F226">
-        <v>122.81777265046146</v>
+        <v>121.61568448685099</v>
       </c>
       <c r="G226">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H226">
-        <v>123.24382846195641</v>
+        <v>118.08386775672585</v>
       </c>
       <c r="I226">
-        <v>276.59333196040171</v>
+        <v>235.05928329584168</v>
       </c>
       <c r="J226">
-        <v>1.6192594080704381</v>
+        <v>1.5710122319674664</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -14361,28 +14357,28 @@
         <v>23</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>0.49233463123431931</v>
+        <v>0.43364131639819742</v>
       </c>
       <c r="E227">
-        <v>61021</v>
+        <v>54151</v>
       </c>
       <c r="F227">
-        <v>129.25155274413726</v>
+        <v>128.28588576388248</v>
       </c>
       <c r="G227">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H227">
-        <v>96.889952936345395</v>
+        <v>124.37087499931191</v>
       </c>
       <c r="I227">
-        <v>84.538119003195646</v>
+        <v>3.8265199286629059</v>
       </c>
       <c r="J227">
-        <v>1.5024664797131562</v>
+        <v>1.4288423872949758</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -14423,28 +14419,28 @@
         <v>23</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>0.50709263687137451</v>
+        <v>0.47183725899691581</v>
       </c>
       <c r="E228">
-        <v>68044</v>
+        <v>61544</v>
       </c>
       <c r="F228">
-        <v>119.38566221856446</v>
+        <v>122.81777265046146</v>
       </c>
       <c r="G228">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H228">
-        <v>103.66308438856598</v>
+        <v>123.24382846195641</v>
       </c>
       <c r="I228">
-        <v>23.729521458704678</v>
+        <v>276.59333196040171</v>
       </c>
       <c r="J228">
-        <v>1.7775445337621425</v>
+        <v>1.6192594080704381</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -14479,52 +14475,52 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B229">
         <v>23</v>
       </c>
       <c r="C229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>0.51559578599165823</v>
+        <v>0.49233463123431931</v>
       </c>
       <c r="E229">
-        <v>62716</v>
+        <v>61021</v>
       </c>
       <c r="F229">
-        <v>131.69998086612668</v>
+        <v>129.25155274413726</v>
       </c>
       <c r="G229">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H229">
-        <v>108.03508468477204</v>
+        <v>96.889952936345395</v>
       </c>
       <c r="I229">
-        <v>73.593768169711211</v>
+        <v>84.538119003195646</v>
       </c>
       <c r="J229">
-        <v>1.8760558460884686</v>
+        <v>1.5024664797131562</v>
       </c>
       <c r="K229">
-        <v>8263884</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>6967847.25</v>
+        <v>0</v>
       </c>
       <c r="M229">
-        <v>4061726.75</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>2007708.375</v>
+        <v>0</v>
       </c>
       <c r="O229">
-        <v>735272.625</v>
+        <v>0</v>
       </c>
       <c r="P229">
-        <v>222939</v>
+        <v>0</v>
       </c>
       <c r="Q229">
         <v>0</v>
@@ -14544,31 +14540,31 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>0.51697427519296224</v>
+        <v>0.50709263687137451</v>
       </c>
       <c r="E230">
-        <v>61646</v>
+        <v>68044</v>
       </c>
       <c r="F230">
-        <v>134.34414236122376</v>
+        <v>119.38566221856446</v>
       </c>
       <c r="G230">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H230">
-        <v>133.13383339487714</v>
+        <v>103.66308438856598</v>
       </c>
       <c r="I230">
-        <v>326.04056692389145</v>
+        <v>23.729521458704678</v>
       </c>
       <c r="J230">
-        <v>1.9064310986337945</v>
+        <v>1.7775445337621425</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -14603,52 +14599,52 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B231">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D231">
-        <v>0.52932131364159352</v>
+        <v>0.51559578599165823</v>
       </c>
       <c r="E231">
-        <v>59184</v>
+        <v>62716</v>
       </c>
       <c r="F231">
-        <v>143.27478710462287</v>
+        <v>131.69998086612668</v>
       </c>
       <c r="G231">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H231">
-        <v>98.615378373484475</v>
+        <v>108.03508468477204</v>
       </c>
       <c r="I231">
-        <v>749.27881555985198</v>
+        <v>73.593768169711211</v>
       </c>
       <c r="J231">
-        <v>1.4786981121882861</v>
+        <v>1.8760558460884686</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>8263884</v>
       </c>
       <c r="L231">
-        <v>0</v>
+        <v>6967847.25</v>
       </c>
       <c r="M231">
-        <v>0</v>
+        <v>4061726.75</v>
       </c>
       <c r="N231">
-        <v>0</v>
+        <v>2007708.375</v>
       </c>
       <c r="O231">
-        <v>0</v>
+        <v>735272.625</v>
       </c>
       <c r="P231">
-        <v>0</v>
+        <v>222939</v>
       </c>
       <c r="Q231">
         <v>0</v>
@@ -14671,28 +14667,28 @@
         <v>24</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>0.58038215668296655</v>
+        <v>0.51697427519296224</v>
       </c>
       <c r="E232">
-        <v>62716</v>
+        <v>61646</v>
       </c>
       <c r="F232">
-        <v>148.24853306971107</v>
+        <v>134.34414236122376</v>
       </c>
       <c r="G232">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H232">
-        <v>100.96483601856134</v>
+        <v>133.13383339487714</v>
       </c>
       <c r="I232">
-        <v>173.41649698593321</v>
+        <v>326.04056692389145</v>
       </c>
       <c r="J232">
-        <v>2.0244653660283194</v>
+        <v>1.9064310986337945</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -14733,28 +14729,28 @@
         <v>24</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>0.57686062021589402</v>
+        <v>0.52932131364159352</v>
       </c>
       <c r="E233">
-        <v>63861</v>
+        <v>59184</v>
       </c>
       <c r="F233">
-        <v>144.70711388797545</v>
+        <v>143.27478710462287</v>
       </c>
       <c r="G233">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H233">
-        <v>92.115820837646538</v>
+        <v>98.615378373484475</v>
       </c>
       <c r="I233">
-        <v>64.367083812832618</v>
+        <v>749.27881555985198</v>
       </c>
       <c r="J233">
-        <v>1.8238709609460191</v>
+        <v>1.4786981121882861</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -14795,181 +14791,305 @@
         <v>24</v>
       </c>
       <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>0.58038215668296655</v>
+      </c>
+      <c r="E234">
+        <v>62716</v>
+      </c>
+      <c r="F234">
+        <v>148.24853306971107</v>
+      </c>
+      <c r="G234">
+        <v>92</v>
+      </c>
+      <c r="H234">
+        <v>100.96483601856134</v>
+      </c>
+      <c r="I234">
+        <v>173.41649698593321</v>
+      </c>
+      <c r="J234">
+        <v>2.0244653660283194</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>24</v>
+      </c>
+      <c r="C235">
+        <v>4</v>
+      </c>
+      <c r="D235">
+        <v>0.57686062021589402</v>
+      </c>
+      <c r="E235">
+        <v>63861</v>
+      </c>
+      <c r="F235">
+        <v>144.70711388797545</v>
+      </c>
+      <c r="G235">
+        <v>105</v>
+      </c>
+      <c r="H235">
+        <v>92.115820837646538</v>
+      </c>
+      <c r="I235">
+        <v>64.367083812832618</v>
+      </c>
+      <c r="J235">
+        <v>1.8238709609460191</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>24</v>
+      </c>
+      <c r="C236">
         <v>5</v>
       </c>
-      <c r="D234">
+      <c r="D236">
         <v>0.53617986390766581</v>
       </c>
-      <c r="E234">
+      <c r="E236">
         <v>66769</v>
       </c>
-      <c r="F234">
+      <c r="F236">
         <v>128.64423609759021</v>
       </c>
-      <c r="G234">
+      <c r="G236">
         <v>100</v>
       </c>
-      <c r="H234">
+      <c r="H236">
         <v>112.8069457628802</v>
       </c>
-      <c r="I234">
+      <c r="I236">
         <v>275.71558774994764</v>
       </c>
-      <c r="J234">
+      <c r="J236">
         <v>1.9098337679691644</v>
       </c>
-      <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="M234">
-        <v>0</v>
-      </c>
-      <c r="N234">
-        <v>0</v>
-      </c>
-      <c r="O234">
-        <v>0</v>
-      </c>
-      <c r="P234">
-        <v>0</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>0</v>
-      </c>
-      <c r="S234">
-        <v>0</v>
-      </c>
-      <c r="T234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>0</v>
-      </c>
-      <c r="B240">
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
         <v>4</v>
       </c>
-      <c r="C240">
+      <c r="C242">
         <v>4</v>
       </c>
-      <c r="D240">
+      <c r="D242">
         <v>0.41493829601930421</v>
       </c>
-      <c r="E240">
+      <c r="E242">
         <v>63657</v>
       </c>
-      <c r="F240">
+      <c r="F242">
         <v>104.42201171905683</v>
       </c>
-      <c r="G240">
+      <c r="G242">
         <v>97</v>
       </c>
-      <c r="H240">
+      <c r="H242">
         <v>143.53536270970031</v>
       </c>
-      <c r="I240">
+      <c r="I242">
         <v>15.99753570059363</v>
       </c>
-      <c r="J240">
+      <c r="J242">
         <v>1.4187776951949957</v>
       </c>
-      <c r="K240">
+      <c r="K242">
         <v>6651892.375</v>
       </c>
-      <c r="L240">
+      <c r="L242">
         <v>3694844.5</v>
       </c>
-      <c r="M240">
+      <c r="M242">
         <v>1572752.375</v>
       </c>
-      <c r="N240">
+      <c r="N242">
         <v>482821.5</v>
       </c>
-      <c r="O240">
+      <c r="O242">
         <v>80870.625</v>
       </c>
-      <c r="P240">
-        <v>0</v>
-      </c>
-      <c r="Q240">
-        <v>0</v>
-      </c>
-      <c r="R240">
-        <v>0</v>
-      </c>
-      <c r="S240">
-        <v>0</v>
-      </c>
-      <c r="T240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>0</v>
-      </c>
-      <c r="B241">
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
         <v>4</v>
       </c>
-      <c r="C241">
+      <c r="C243">
         <v>5</v>
       </c>
-      <c r="D241">
+      <c r="D243">
         <v>0.37677868366172873</v>
       </c>
-      <c r="E241">
+      <c r="E243">
         <v>52628</v>
       </c>
-      <c r="F241">
+      <c r="F243">
         <v>114.68963289503687</v>
       </c>
-      <c r="G241">
+      <c r="G243">
         <v>70</v>
       </c>
-      <c r="H241">
+      <c r="H243">
         <v>160.21632125870187</v>
       </c>
-      <c r="I241">
+      <c r="I243">
         <v>334.33933748585264</v>
       </c>
-      <c r="J241">
+      <c r="J243">
         <v>1.2615045343675408</v>
       </c>
-      <c r="K241">
+      <c r="K243">
         <v>6040061.125</v>
       </c>
-      <c r="L241">
+      <c r="L243">
         <v>3487625</v>
       </c>
-      <c r="M241">
+      <c r="M243">
         <v>1748962.125</v>
       </c>
-      <c r="N241">
+      <c r="N243">
         <v>523644.625</v>
       </c>
-      <c r="O241">
+      <c r="O243">
         <v>126814.625</v>
       </c>
-      <c r="P241">
-        <v>0</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241">
-        <v>0</v>
-      </c>
-      <c r="S241">
-        <v>0</v>
-      </c>
-      <c r="T241">
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
         <v>0</v>
       </c>
     </row>
